--- a/data/trans_orig/P6703-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6703-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{862AABAC-4896-44AA-A1CF-8D68EAE9F49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{566A73EC-E741-43F0-8234-253C156552C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EB83742F-C1B8-4B5D-8629-1F91866C4851}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{109448CC-B413-45C5-A6E0-17E13485E588}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="806">
   <si>
     <t>Población según si tiene tiempo de llevar al día su trabajo en 2012 (Tasa respuesta: 33,96%)</t>
   </si>
@@ -85,10 +85,10 @@
     <t>4,39%</t>
   </si>
   <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
   </si>
   <si>
     <t>2,26%</t>
@@ -97,7 +97,7 @@
     <t>0,57%</t>
   </si>
   <si>
-    <t>5,59%</t>
+    <t>5,63%</t>
   </si>
   <si>
     <t>Solo alguna vez</t>
@@ -109,7 +109,7 @@
     <t>1,16%</t>
   </si>
   <si>
-    <t>10,48%</t>
+    <t>11,18%</t>
   </si>
   <si>
     <t>3,54%</t>
@@ -118,16 +118,16 @@
     <t>1,08%</t>
   </si>
   <si>
-    <t>9,64%</t>
+    <t>9,16%</t>
   </si>
   <si>
     <t>4,01%</t>
   </si>
   <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -136,2302 +136,2326 @@
     <t>13,34%</t>
   </si>
   <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
   </si>
   <si>
     <t>11,16%</t>
   </si>
   <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
     <t>5,61%</t>
   </si>
   <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
   </si>
   <si>
     <t>17,74%</t>
   </si>
   <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>56,04%</t>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tiene tiempo de llevar al día su trabajo en 2015 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>Población según si tiene tiempo de llevar al día su trabajo en 2023 (Tasa respuesta: 10,37%)</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
   </si>
   <si>
     <t>44,83%</t>
   </si>
   <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tiene tiempo de llevar al día su trabajo en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>Población según si tiene tiempo de llevar al día su trabajo en 2023 (Tasa respuesta: 10,37%)</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
+    <t>60,34%</t>
   </si>
 </sst>
 </file>
@@ -2843,7 +2867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33320164-A9EB-4D33-832D-ECB6A2C7144E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11E89E3-5C21-429B-AEC0-E41078DFFAB2}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3652,10 +3676,10 @@
         <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
         <v>26</v>
@@ -3667,10 +3691,10 @@
         <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3685,13 +3709,13 @@
         <v>82553</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>51</v>
@@ -3700,13 +3724,13 @@
         <v>52851</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>134</v>
@@ -3715,13 +3739,13 @@
         <v>135404</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3736,13 +3760,13 @@
         <v>131205</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>78</v>
@@ -3751,13 +3775,13 @@
         <v>83046</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>207</v>
@@ -3766,13 +3790,13 @@
         <v>214252</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3787,13 +3811,13 @@
         <v>190766</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>127</v>
@@ -3802,13 +3826,13 @@
         <v>131793</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>305</v>
@@ -3817,13 +3841,13 @@
         <v>322559</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,7 +3903,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3891,13 +3915,13 @@
         <v>11757</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -3906,13 +3930,13 @@
         <v>8119</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>16</v>
@@ -3921,13 +3945,13 @@
         <v>19876</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3945,10 +3969,10 @@
         <v>111</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>161</v>
+        <v>27</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -3957,13 +3981,13 @@
         <v>8534</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>14</v>
@@ -3972,13 +3996,13 @@
         <v>15900</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,13 +4017,13 @@
         <v>72366</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H24" s="7">
         <v>34</v>
@@ -4008,13 +4032,13 @@
         <v>40929</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M24" s="7">
         <v>99</v>
@@ -4023,13 +4047,13 @@
         <v>113295</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,13 +4068,13 @@
         <v>120431</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H25" s="7">
         <v>59</v>
@@ -4059,13 +4083,13 @@
         <v>69483</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M25" s="7">
         <v>167</v>
@@ -4074,13 +4098,13 @@
         <v>189915</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4095,13 +4119,13 @@
         <v>157829</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H26" s="7">
         <v>86</v>
@@ -4110,13 +4134,13 @@
         <v>98275</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M26" s="7">
         <v>224</v>
@@ -4125,13 +4149,13 @@
         <v>256103</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,7 +4211,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4199,13 +4223,13 @@
         <v>967</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -4214,13 +4238,13 @@
         <v>944</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M28" s="7">
         <v>2</v>
@@ -4229,13 +4253,13 @@
         <v>1910</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4250,13 +4274,13 @@
         <v>3093</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -4265,13 +4289,13 @@
         <v>2345</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -4280,13 +4304,13 @@
         <v>5438</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4301,13 +4325,13 @@
         <v>29828</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H30" s="7">
         <v>13</v>
@@ -4316,13 +4340,13 @@
         <v>14585</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M30" s="7">
         <v>39</v>
@@ -4331,13 +4355,13 @@
         <v>44413</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4352,13 +4376,13 @@
         <v>45572</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H31" s="7">
         <v>17</v>
@@ -4367,13 +4391,13 @@
         <v>19470</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M31" s="7">
         <v>59</v>
@@ -4382,13 +4406,13 @@
         <v>65042</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4403,13 +4427,13 @@
         <v>77892</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H32" s="7">
         <v>30</v>
@@ -4418,13 +4442,13 @@
         <v>32347</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M32" s="7">
         <v>105</v>
@@ -4433,13 +4457,13 @@
         <v>110238</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4495,7 +4519,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4513,7 +4537,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -4528,7 +4552,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -4543,7 +4567,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4564,7 +4588,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -4579,7 +4603,7 @@
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -4594,7 +4618,7 @@
         <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4609,13 +4633,13 @@
         <v>1000</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -4624,13 +4648,13 @@
         <v>891</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -4639,13 +4663,13 @@
         <v>1890</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4660,13 +4684,13 @@
         <v>1017</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -4675,13 +4699,13 @@
         <v>967</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
@@ -4690,13 +4714,13 @@
         <v>1983</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4711,13 +4735,13 @@
         <v>1000</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -4726,13 +4750,13 @@
         <v>981</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
@@ -4741,13 +4765,13 @@
         <v>1980</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4815,13 +4839,13 @@
         <v>28069</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H40" s="7">
         <v>26</v>
@@ -4833,10 +4857,10 @@
         <v>68</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
       <c r="M40" s="7">
         <v>53</v>
@@ -4845,13 +4869,13 @@
         <v>57973</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4866,13 +4890,13 @@
         <v>34684</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H41" s="7">
         <v>32</v>
@@ -4881,13 +4905,13 @@
         <v>33761</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M41" s="7">
         <v>64</v>
@@ -4896,13 +4920,13 @@
         <v>68445</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4917,13 +4941,13 @@
         <v>269586</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F42" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H42" s="7">
         <v>161</v>
@@ -4932,13 +4956,13 @@
         <v>173520</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M42" s="7">
         <v>420</v>
@@ -4947,13 +4971,13 @@
         <v>443105</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4968,13 +4992,13 @@
         <v>428008</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H43" s="7">
         <v>254</v>
@@ -4983,13 +5007,13 @@
         <v>279166</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K43" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="L43" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M43" s="7">
         <v>660</v>
@@ -4998,13 +5022,13 @@
         <v>707174</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P43" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="P43" s="7" t="s">
+      <c r="Q43" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -5019,13 +5043,13 @@
         <v>661481</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="H44" s="7">
         <v>403</v>
@@ -5034,13 +5058,13 @@
         <v>432329</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="M44" s="7">
         <v>1013</v>
@@ -5049,13 +5073,13 @@
         <v>1093810</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5111,7 +5135,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -5133,7 +5157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740B6724-42BE-4666-891E-81B107A00D34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C27C1B0-B507-412E-9065-2D4EB49E2921}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5150,7 +5174,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5257,13 +5281,13 @@
         <v>1054</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>198</v>
+        <v>294</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -5365,7 +5389,7 @@
         <v>311</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="H6" s="7">
         <v>19</v>
@@ -5374,13 +5398,13 @@
         <v>18029</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M6" s="7">
         <v>34</v>
@@ -5389,13 +5413,13 @@
         <v>33935</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5410,13 +5434,13 @@
         <v>24273</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H7" s="7">
         <v>29</v>
@@ -5425,13 +5449,13 @@
         <v>29703</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M7" s="7">
         <v>53</v>
@@ -5440,13 +5464,13 @@
         <v>53976</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5461,13 +5485,13 @@
         <v>33810</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>329</v>
+        <v>57</v>
       </c>
       <c r="H8" s="7">
         <v>35</v>
@@ -5494,10 +5518,10 @@
         <v>333</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>276</v>
+        <v>334</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5565,10 +5589,10 @@
         <v>10686</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>336</v>
+        <v>28</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>337</v>
@@ -5583,10 +5607,10 @@
         <v>68</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -5595,13 +5619,13 @@
         <v>19305</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>196</v>
+        <v>339</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>69</v>
+        <v>340</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5616,13 +5640,13 @@
         <v>19366</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>341</v>
+        <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="H11" s="7">
         <v>23</v>
@@ -5631,13 +5655,13 @@
         <v>22158</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="M11" s="7">
         <v>42</v>
@@ -5646,13 +5670,13 @@
         <v>41525</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5667,13 +5691,13 @@
         <v>68609</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="H12" s="7">
         <v>39</v>
@@ -5682,13 +5706,13 @@
         <v>36417</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="M12" s="7">
         <v>106</v>
@@ -5697,13 +5721,13 @@
         <v>105026</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5718,13 +5742,13 @@
         <v>113283</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="H13" s="7">
         <v>84</v>
@@ -5733,13 +5757,13 @@
         <v>80421</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="M13" s="7">
         <v>191</v>
@@ -5748,13 +5772,13 @@
         <v>193704</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5769,13 +5793,13 @@
         <v>132241</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="H14" s="7">
         <v>128</v>
@@ -5784,13 +5808,13 @@
         <v>126100</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="M14" s="7">
         <v>253</v>
@@ -5799,13 +5823,13 @@
         <v>258341</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5873,13 +5897,13 @@
         <v>13755</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -5888,10 +5912,10 @@
         <v>10260</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>381</v>
@@ -5906,10 +5930,10 @@
         <v>382</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>253</v>
+        <v>383</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5924,13 +5948,13 @@
         <v>27613</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>304</v>
+        <v>386</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -5939,13 +5963,13 @@
         <v>15667</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M17" s="7">
         <v>39</v>
@@ -5954,13 +5978,13 @@
         <v>43280</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>67</v>
+        <v>393</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5975,13 +5999,13 @@
         <v>82615</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="H18" s="7">
         <v>59</v>
@@ -5990,13 +6014,13 @@
         <v>59514</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="M18" s="7">
         <v>137</v>
@@ -6005,13 +6029,13 @@
         <v>142129</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6026,13 +6050,13 @@
         <v>163882</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="H19" s="7">
         <v>93</v>
@@ -6041,13 +6065,13 @@
         <v>89115</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>369</v>
+        <v>407</v>
       </c>
       <c r="M19" s="7">
         <v>252</v>
@@ -6056,13 +6080,13 @@
         <v>252997</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6077,13 +6101,13 @@
         <v>171723</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>407</v>
+        <v>185</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="H20" s="7">
         <v>141</v>
@@ -6092,13 +6116,13 @@
         <v>142859</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="M20" s="7">
         <v>305</v>
@@ -6107,13 +6131,13 @@
         <v>314582</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>372</v>
+        <v>416</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6169,7 +6193,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6181,13 +6205,13 @@
         <v>11129</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -6196,13 +6220,13 @@
         <v>7353</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
@@ -6211,13 +6235,13 @@
         <v>18482</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>113</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6232,13 +6256,13 @@
         <v>15946</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="H23" s="7">
         <v>14</v>
@@ -6247,13 +6271,13 @@
         <v>14507</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>157</v>
+        <v>258</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="M23" s="7">
         <v>29</v>
@@ -6262,13 +6286,13 @@
         <v>30453</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>76</v>
+        <v>430</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6283,13 +6307,13 @@
         <v>61696</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="H24" s="7">
         <v>34</v>
@@ -6298,13 +6322,13 @@
         <v>37213</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>430</v>
+        <v>173</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="M24" s="7">
         <v>90</v>
@@ -6313,13 +6337,13 @@
         <v>98909</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>433</v>
+        <v>87</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>83</v>
+        <v>439</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6334,13 +6358,13 @@
         <v>124712</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>436</v>
+        <v>137</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="H25" s="7">
         <v>68</v>
@@ -6349,13 +6373,13 @@
         <v>72120</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="M25" s="7">
         <v>181</v>
@@ -6364,13 +6388,13 @@
         <v>196832</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6385,13 +6409,13 @@
         <v>154245</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>409</v>
+        <v>448</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="H26" s="7">
         <v>100</v>
@@ -6400,13 +6424,13 @@
         <v>111926</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>447</v>
+        <v>333</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="M26" s="7">
         <v>237</v>
@@ -6415,13 +6439,13 @@
         <v>266170</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>450</v>
+        <v>333</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6477,7 +6501,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6489,13 +6513,13 @@
         <v>4274</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>195</v>
+        <v>456</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -6504,13 +6528,13 @@
         <v>4289</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>305</v>
+        <v>459</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="M28" s="7">
         <v>8</v>
@@ -6522,10 +6546,10 @@
         <v>68</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>457</v>
+        <v>385</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6540,13 +6564,13 @@
         <v>7412</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>459</v>
+        <v>111</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -6555,13 +6579,13 @@
         <v>3355</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -6570,13 +6594,13 @@
         <v>10767</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6591,13 +6615,13 @@
         <v>40031</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>468</v>
+        <v>220</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="H30" s="7">
         <v>18</v>
@@ -6606,13 +6630,13 @@
         <v>22322</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="M30" s="7">
         <v>54</v>
@@ -6621,13 +6645,13 @@
         <v>62352</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>136</v>
+        <v>475</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6642,13 +6666,13 @@
         <v>36975</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="H31" s="7">
         <v>34</v>
@@ -6657,13 +6681,13 @@
         <v>39219</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>479</v>
+        <v>47</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="M31" s="7">
         <v>66</v>
@@ -6672,13 +6696,13 @@
         <v>76195</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6693,13 +6717,13 @@
         <v>77033</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="H32" s="7">
         <v>31</v>
@@ -6708,13 +6732,13 @@
         <v>36694</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>147</v>
+        <v>491</v>
       </c>
       <c r="M32" s="7">
         <v>98</v>
@@ -6723,13 +6747,13 @@
         <v>113728</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6785,7 +6809,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6803,7 +6827,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6818,7 +6842,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6833,7 +6857,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6854,7 +6878,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -6863,13 +6887,13 @@
         <v>1183</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -6878,13 +6902,13 @@
         <v>1183</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6899,13 +6923,13 @@
         <v>1024</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -6920,7 +6944,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -6929,13 +6953,13 @@
         <v>1024</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6950,13 +6974,13 @@
         <v>2930</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -6971,7 +6995,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="M37" s="7">
         <v>3</v>
@@ -6980,13 +7004,13 @@
         <v>2930</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7001,13 +7025,13 @@
         <v>2031</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="H38" s="7">
         <v>4</v>
@@ -7016,13 +7040,13 @@
         <v>4007</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M38" s="7">
         <v>6</v>
@@ -7031,13 +7055,13 @@
         <v>6039</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>513</v>
+        <v>443</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7105,13 +7129,13 @@
         <v>40899</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>253</v>
+        <v>518</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="H40" s="7">
         <v>37</v>
@@ -7123,10 +7147,10 @@
         <v>24</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>452</v>
+        <v>199</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="M40" s="7">
         <v>75</v>
@@ -7135,13 +7159,13 @@
         <v>77655</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>518</v>
+        <v>79</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7156,13 +7180,13 @@
         <v>74402</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>65</v>
+        <v>524</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="H41" s="7">
         <v>60</v>
@@ -7171,13 +7195,13 @@
         <v>60685</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>524</v>
+        <v>113</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="M41" s="7">
         <v>129</v>
@@ -7186,13 +7210,13 @@
         <v>135087</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7210,10 +7234,10 @@
         <v>80</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H42" s="7">
         <v>169</v>
@@ -7222,13 +7246,13 @@
         <v>173494</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M42" s="7">
         <v>422</v>
@@ -7237,13 +7261,13 @@
         <v>443375</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7258,7 +7282,7 @@
         <v>466056</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>537</v>
+        <v>278</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>538</v>
@@ -7291,10 +7315,10 @@
         <v>543</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>280</v>
+        <v>544</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>140</v>
+        <v>545</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7309,13 +7333,13 @@
         <v>571083</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="H44" s="7">
         <v>439</v>
@@ -7324,13 +7348,13 @@
         <v>455660</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="M44" s="7">
         <v>964</v>
@@ -7339,13 +7363,13 @@
         <v>1026743</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7401,7 +7425,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -7423,7 +7447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{711AE68B-EB48-4BEE-92D1-767C9F6FBF02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F9A6F8-6B92-4CF4-9CFA-A67592CD90CE}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7440,7 +7464,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7547,13 +7571,13 @@
         <v>161</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>555</v>
+        <v>420</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -7562,13 +7586,13 @@
         <v>2138</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -7577,13 +7601,13 @@
         <v>2299</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>559</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7703,7 +7727,7 @@
         <v>571</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>528</v>
+        <v>295</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>572</v>
@@ -7858,10 +7882,10 @@
         <v>588</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>252</v>
+        <v>589</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -7870,13 +7894,13 @@
         <v>1139</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>251</v>
+        <v>422</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -7885,13 +7909,13 @@
         <v>9037</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>114</v>
+        <v>592</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7906,13 +7930,13 @@
         <v>5200</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>593</v>
+        <v>63</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -7921,10 +7945,10 @@
         <v>4858</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>596</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>597</v>
@@ -7975,10 +7999,10 @@
         <v>604</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>295</v>
+        <v>605</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M12" s="7">
         <v>28</v>
@@ -7987,13 +8011,13 @@
         <v>32925</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>608</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8023,10 +8047,10 @@
         <v>23463</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>612</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>613</v>
@@ -8038,7 +8062,7 @@
         <v>52998</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>614</v>
@@ -8181,10 +8205,10 @@
         <v>628</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>569</v>
+        <v>629</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -8193,13 +8217,13 @@
         <v>11153</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8214,13 +8238,13 @@
         <v>7375</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>357</v>
+        <v>636</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -8229,13 +8253,13 @@
         <v>2862</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -8244,13 +8268,13 @@
         <v>10238</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>254</v>
+        <v>521</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8265,13 +8289,13 @@
         <v>15611</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="H18" s="7">
         <v>29</v>
@@ -8280,13 +8304,13 @@
         <v>20959</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="M18" s="7">
         <v>47</v>
@@ -8295,13 +8319,13 @@
         <v>36571</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8316,13 +8340,13 @@
         <v>26531</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="H19" s="7">
         <v>34</v>
@@ -8331,13 +8355,13 @@
         <v>22722</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="M19" s="7">
         <v>59</v>
@@ -8346,13 +8370,13 @@
         <v>49252</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>138</v>
+        <v>659</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8367,13 +8391,13 @@
         <v>52296</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="H20" s="7">
         <v>65</v>
@@ -8382,13 +8406,13 @@
         <v>49614</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>149</v>
+        <v>663</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="M20" s="7">
         <v>114</v>
@@ -8397,13 +8421,13 @@
         <v>101909</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8459,7 +8483,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -8471,13 +8495,13 @@
         <v>5744</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>665</v>
+        <v>109</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>666</v>
+        <v>294</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -8486,13 +8510,13 @@
         <v>7263</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>461</v>
+        <v>670</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
@@ -8501,13 +8525,13 @@
         <v>13007</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>670</v>
+        <v>626</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8522,13 +8546,13 @@
         <v>10877</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -8537,13 +8561,13 @@
         <v>5671</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>675</v>
+        <v>629</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="M23" s="7">
         <v>18</v>
@@ -8552,13 +8576,13 @@
         <v>16549</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>345</v>
+        <v>678</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>634</v>
+        <v>679</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8573,13 +8597,13 @@
         <v>25620</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>679</v>
+        <v>19</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="H24" s="7">
         <v>35</v>
@@ -8588,13 +8612,13 @@
         <v>21727</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>604</v>
+        <v>684</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>82</v>
+        <v>685</v>
       </c>
       <c r="M24" s="7">
         <v>60</v>
@@ -8603,13 +8627,13 @@
         <v>47347</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>174</v>
+        <v>479</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8624,13 +8648,13 @@
         <v>29632</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>685</v>
+        <v>523</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="H25" s="7">
         <v>46</v>
@@ -8639,13 +8663,13 @@
         <v>29689</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="M25" s="7">
         <v>79</v>
@@ -8654,13 +8678,13 @@
         <v>59321</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8675,13 +8699,13 @@
         <v>109468</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>489</v>
+        <v>697</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="H26" s="7">
         <v>86</v>
@@ -8690,13 +8714,13 @@
         <v>56329</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>696</v>
+        <v>623</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="M26" s="7">
         <v>143</v>
@@ -8705,13 +8729,13 @@
         <v>165796</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>105</v>
+        <v>620</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8767,7 +8791,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8779,13 +8803,13 @@
         <v>3774</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>379</v>
+        <v>703</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -8794,13 +8818,13 @@
         <v>1169</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>702</v>
+        <v>389</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -8812,10 +8836,10 @@
         <v>21</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8830,13 +8854,13 @@
         <v>5850</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>705</v>
+        <v>387</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>415</v>
+        <v>709</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>42</v>
+        <v>710</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -8845,13 +8869,13 @@
         <v>3851</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
@@ -8860,13 +8884,13 @@
         <v>9701</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>679</v>
+        <v>347</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8881,13 +8905,13 @@
         <v>16376</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>134</v>
+        <v>718</v>
       </c>
       <c r="H30" s="7">
         <v>15</v>
@@ -8896,13 +8920,13 @@
         <v>9415</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="M30" s="7">
         <v>33</v>
@@ -8911,13 +8935,13 @@
         <v>25791</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>282</v>
+        <v>724</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8932,13 +8956,13 @@
         <v>17314</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>85</v>
+        <v>725</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="H31" s="7">
         <v>18</v>
@@ -8947,13 +8971,13 @@
         <v>9675</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>721</v>
+        <v>188</v>
       </c>
       <c r="M31" s="7">
         <v>37</v>
@@ -8962,13 +8986,13 @@
         <v>26989</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>534</v>
+        <v>730</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8983,13 +9007,13 @@
         <v>26022</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
       <c r="H32" s="7">
         <v>25</v>
@@ -8998,13 +9022,13 @@
         <v>15953</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>57</v>
+        <v>737</v>
       </c>
       <c r="M32" s="7">
         <v>51</v>
@@ -9013,13 +9037,13 @@
         <v>41975</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>729</v>
+        <v>738</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>731</v>
+        <v>740</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9075,7 +9099,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -9087,13 +9111,13 @@
         <v>607</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>733</v>
+        <v>742</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -9102,13 +9126,13 @@
         <v>871</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>734</v>
+        <v>743</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>735</v>
+        <v>744</v>
       </c>
       <c r="M34" s="7">
         <v>3</v>
@@ -9117,13 +9141,13 @@
         <v>1478</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>736</v>
+        <v>745</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>738</v>
+        <v>410</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9144,7 +9168,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -9159,7 +9183,7 @@
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>216</v>
+        <v>748</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -9189,13 +9213,13 @@
         <v>717</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>741</v>
+        <v>750</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
@@ -9204,13 +9228,13 @@
         <v>1080</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>742</v>
+        <v>751</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>743</v>
+        <v>752</v>
       </c>
       <c r="M36" s="7">
         <v>3</v>
@@ -9219,13 +9243,13 @@
         <v>1797</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>744</v>
+        <v>753</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>745</v>
+        <v>754</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9240,13 +9264,13 @@
         <v>563</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>747</v>
+        <v>756</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
@@ -9255,13 +9279,13 @@
         <v>1114</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>748</v>
+        <v>757</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>749</v>
+        <v>758</v>
       </c>
       <c r="M37" s="7">
         <v>3</v>
@@ -9270,13 +9294,13 @@
         <v>1676</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>750</v>
+        <v>759</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>751</v>
+        <v>524</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>752</v>
+        <v>760</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9291,13 +9315,13 @@
         <v>2573</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>753</v>
+        <v>761</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>754</v>
+        <v>762</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>755</v>
+        <v>763</v>
       </c>
       <c r="H38" s="7">
         <v>6</v>
@@ -9306,13 +9330,13 @@
         <v>3397</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>756</v>
+        <v>764</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>757</v>
+        <v>765</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>758</v>
+        <v>766</v>
       </c>
       <c r="M38" s="7">
         <v>10</v>
@@ -9321,13 +9345,13 @@
         <v>5971</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>759</v>
+        <v>767</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>760</v>
+        <v>768</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>761</v>
+        <v>769</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9395,13 +9419,13 @@
         <v>24821</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>762</v>
+        <v>261</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>763</v>
+        <v>389</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="H40" s="7">
         <v>25</v>
@@ -9410,13 +9434,13 @@
         <v>17096</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>515</v>
+        <v>262</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>295</v>
+        <v>772</v>
       </c>
       <c r="M40" s="7">
         <v>47</v>
@@ -9425,13 +9449,13 @@
         <v>41917</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>766</v>
+        <v>347</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9446,13 +9470,13 @@
         <v>29303</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>457</v>
+        <v>775</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>769</v>
+        <v>776</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>770</v>
+        <v>777</v>
       </c>
       <c r="H41" s="7">
         <v>22</v>
@@ -9461,13 +9485,13 @@
         <v>17243</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>771</v>
+        <v>778</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>772</v>
+        <v>679</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="M41" s="7">
         <v>47</v>
@@ -9476,13 +9500,13 @@
         <v>46545</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>737</v>
+        <v>264</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9497,13 +9521,13 @@
         <v>82886</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>212</v>
+        <v>784</v>
       </c>
       <c r="H42" s="7">
         <v>96</v>
@@ -9512,13 +9536,13 @@
         <v>65967</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>777</v>
+        <v>745</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>778</v>
+        <v>785</v>
       </c>
       <c r="M42" s="7">
         <v>176</v>
@@ -9527,13 +9551,13 @@
         <v>148853</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>779</v>
+        <v>786</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>215</v>
+        <v>788</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9548,13 +9572,13 @@
         <v>110035</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>781</v>
+        <v>789</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
       <c r="H43" s="7">
         <v>132</v>
@@ -9563,13 +9587,13 @@
         <v>99877</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>786</v>
+        <v>794</v>
       </c>
       <c r="M43" s="7">
         <v>233</v>
@@ -9578,13 +9602,13 @@
         <v>209912</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>125</v>
+        <v>795</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>787</v>
+        <v>270</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9599,13 +9623,13 @@
         <v>249869</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
       <c r="H44" s="7">
         <v>236</v>
@@ -9614,13 +9638,13 @@
         <v>187792</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>792</v>
+        <v>800</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>794</v>
+        <v>802</v>
       </c>
       <c r="M44" s="7">
         <v>404</v>
@@ -9629,13 +9653,13 @@
         <v>437661</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>795</v>
+        <v>803</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>796</v>
+        <v>804</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>797</v>
+        <v>805</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9691,7 +9715,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6703-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6703-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{566A73EC-E741-43F0-8234-253C156552C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4889675E-4A18-469D-84F8-75AA60F1790F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{109448CC-B413-45C5-A6E0-17E13485E588}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1899A79B-3680-43FF-8292-534337762B46}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="801">
   <si>
     <t>Población según si tiene tiempo de llevar al día su trabajo en 2012 (Tasa respuesta: 33,96%)</t>
   </si>
@@ -85,2304 +85,2292 @@
     <t>4,39%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
   </si>
   <si>
     <t>2,26%</t>
   </si>
   <si>
-    <t>0,57%</t>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tiene tiempo de llevar al día su trabajo en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
   </si>
   <si>
     <t>5,63%</t>
   </si>
   <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>2,48%</t>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>Población según si tiene tiempo de llevar al día su trabajo en 2023 (Tasa respuesta: 10,37%)</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
   </si>
   <si>
     <t>1,24%</t>
   </si>
   <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
   </si>
   <si>
     <t>23,06%</t>
   </si>
   <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,37%</t>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
   </si>
   <si>
     <t>0,62%</t>
   </si>
   <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
   </si>
   <si>
     <t>36,27%</t>
   </si>
   <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
   </si>
   <si>
     <t>5,0%</t>
   </si>
   <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
   </si>
   <si>
     <t>3,63%</t>
   </si>
   <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tiene tiempo de llevar al día su trabajo en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>Población según si tiene tiempo de llevar al día su trabajo en 2023 (Tasa respuesta: 10,37%)</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
     <t>6,88%</t>
   </si>
   <si>
@@ -2432,9 +2420,6 @@
   </si>
   <si>
     <t>50,28%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
   </si>
   <si>
     <t>65,73%</t>
@@ -2867,7 +2852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11E89E3-5C21-429B-AEC0-E41078DFFAB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB77A0A-D26B-4362-A497-49D7F14AD3FC}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3383,10 +3368,10 @@
         <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3401,13 +3386,13 @@
         <v>72789</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>52</v>
@@ -3416,13 +3401,13 @@
         <v>54462</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>125</v>
@@ -3431,13 +3416,13 @@
         <v>127251</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3452,13 +3437,13 @@
         <v>108153</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>75</v>
@@ -3467,13 +3452,13 @@
         <v>80434</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>180</v>
@@ -3482,13 +3467,13 @@
         <v>188587</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3503,13 +3488,13 @@
         <v>187566</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>114</v>
@@ -3518,13 +3503,13 @@
         <v>123661</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>290</v>
@@ -3533,13 +3518,13 @@
         <v>311227</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,7 +3580,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3607,13 +3592,13 @@
         <v>5827</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -3622,13 +3607,13 @@
         <v>5684</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -3637,13 +3622,13 @@
         <v>11511</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3658,13 +3643,13 @@
         <v>14837</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -3673,13 +3658,13 @@
         <v>12444</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="M17" s="7">
         <v>26</v>
@@ -3966,13 +3951,13 @@
         <v>7366</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>162</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>27</v>
+        <v>163</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -3981,13 +3966,13 @@
         <v>8534</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M23" s="7">
         <v>14</v>
@@ -3996,13 +3981,13 @@
         <v>15900</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>123</v>
+        <v>167</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,13 +4002,13 @@
         <v>72366</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>34</v>
@@ -4032,13 +4017,13 @@
         <v>40929</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>99</v>
@@ -4050,10 +4035,10 @@
         <v>131</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,13 +4053,13 @@
         <v>120431</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>59</v>
@@ -4083,13 +4068,13 @@
         <v>69483</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>167</v>
@@ -4098,13 +4083,13 @@
         <v>189915</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4119,13 +4104,13 @@
         <v>157829</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>86</v>
@@ -4134,13 +4119,13 @@
         <v>98275</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>224</v>
@@ -4149,13 +4134,13 @@
         <v>256103</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,7 +4196,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4223,13 +4208,13 @@
         <v>967</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>195</v>
+        <v>115</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -4238,13 +4223,13 @@
         <v>944</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M28" s="7">
         <v>2</v>
@@ -4253,13 +4238,13 @@
         <v>1910</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4274,7 +4259,7 @@
         <v>3093</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>200</v>
+        <v>66</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>201</v>
@@ -4304,13 +4289,13 @@
         <v>5438</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>121</v>
+        <v>205</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4325,13 +4310,13 @@
         <v>29828</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H30" s="7">
         <v>13</v>
@@ -4340,13 +4325,13 @@
         <v>14585</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M30" s="7">
         <v>39</v>
@@ -4355,13 +4340,13 @@
         <v>44413</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4376,13 +4361,13 @@
         <v>45572</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H31" s="7">
         <v>17</v>
@@ -4391,13 +4376,13 @@
         <v>19470</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M31" s="7">
         <v>59</v>
@@ -4406,13 +4391,13 @@
         <v>65042</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4427,13 +4412,13 @@
         <v>77892</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H32" s="7">
         <v>30</v>
@@ -4442,13 +4427,13 @@
         <v>32347</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M32" s="7">
         <v>105</v>
@@ -4457,13 +4442,13 @@
         <v>110238</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4519,7 +4504,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4537,7 +4522,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -4552,7 +4537,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -4567,7 +4552,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4588,7 +4573,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -4603,7 +4588,7 @@
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -4618,7 +4603,7 @@
         <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4633,13 +4618,13 @@
         <v>1000</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -4648,13 +4633,13 @@
         <v>891</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -4663,13 +4648,13 @@
         <v>1890</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4684,13 +4669,13 @@
         <v>1017</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -4699,13 +4684,13 @@
         <v>967</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
@@ -4714,13 +4699,13 @@
         <v>1983</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4735,13 +4720,13 @@
         <v>1000</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -4750,13 +4735,13 @@
         <v>981</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
@@ -4839,7 +4824,7 @@
         <v>28069</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>200</v>
+        <v>66</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>249</v>
@@ -4872,10 +4857,10 @@
         <v>253</v>
       </c>
       <c r="P40" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4890,13 +4875,13 @@
         <v>34684</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H41" s="7">
         <v>32</v>
@@ -4905,13 +4890,13 @@
         <v>33761</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M41" s="7">
         <v>64</v>
@@ -4920,13 +4905,13 @@
         <v>68445</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4941,13 +4926,13 @@
         <v>269586</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F42" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H42" s="7">
         <v>161</v>
@@ -4956,13 +4941,13 @@
         <v>173520</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M42" s="7">
         <v>420</v>
@@ -4971,13 +4956,13 @@
         <v>443105</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4992,13 +4977,13 @@
         <v>428008</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H43" s="7">
         <v>254</v>
@@ -5007,13 +4992,13 @@
         <v>279166</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M43" s="7">
         <v>660</v>
@@ -5022,13 +5007,13 @@
         <v>707174</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -5043,13 +5028,13 @@
         <v>661481</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H44" s="7">
         <v>403</v>
@@ -5058,13 +5043,13 @@
         <v>432329</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M44" s="7">
         <v>1013</v>
@@ -5073,13 +5058,13 @@
         <v>1093810</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5135,7 +5120,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -5157,7 +5142,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C27C1B0-B507-412E-9065-2D4EB49E2921}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41B7154F-09FA-49DB-83C3-1C144231CC22}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5174,7 +5159,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5281,13 +5266,13 @@
         <v>1054</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>293</v>
+        <v>249</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -5296,13 +5281,13 @@
         <v>6235</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -5311,13 +5296,13 @@
         <v>7289</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5332,13 +5317,13 @@
         <v>4064</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -5347,13 +5332,13 @@
         <v>3815</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -5362,13 +5347,13 @@
         <v>7880</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5383,13 +5368,13 @@
         <v>15907</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H6" s="7">
         <v>19</v>
@@ -5398,13 +5383,13 @@
         <v>18029</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="M6" s="7">
         <v>34</v>
@@ -5413,13 +5398,13 @@
         <v>33935</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5434,13 +5419,13 @@
         <v>24273</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H7" s="7">
         <v>29</v>
@@ -5449,13 +5434,13 @@
         <v>29703</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="M7" s="7">
         <v>53</v>
@@ -5464,13 +5449,13 @@
         <v>53976</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5485,13 +5470,13 @@
         <v>33810</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>57</v>
+        <v>325</v>
       </c>
       <c r="H8" s="7">
         <v>35</v>
@@ -5500,13 +5485,13 @@
         <v>34073</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M8" s="7">
         <v>65</v>
@@ -5515,13 +5500,13 @@
         <v>67884</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5589,13 +5574,13 @@
         <v>10686</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>28</v>
+        <v>333</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -5607,10 +5592,10 @@
         <v>68</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>154</v>
+        <v>335</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -5619,13 +5604,13 @@
         <v>19305</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5640,10 +5625,10 @@
         <v>19366</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>340</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>24</v>
+        <v>341</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>342</v>
@@ -5658,10 +5643,10 @@
         <v>343</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="M11" s="7">
         <v>42</v>
@@ -5670,13 +5655,13 @@
         <v>41525</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5691,13 +5676,13 @@
         <v>68609</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="H12" s="7">
         <v>39</v>
@@ -5706,13 +5691,13 @@
         <v>36417</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="M12" s="7">
         <v>106</v>
@@ -5721,13 +5706,13 @@
         <v>105026</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5742,13 +5727,13 @@
         <v>113283</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="H13" s="7">
         <v>84</v>
@@ -5757,13 +5742,13 @@
         <v>80421</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="M13" s="7">
         <v>191</v>
@@ -5772,13 +5757,13 @@
         <v>193704</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5793,13 +5778,13 @@
         <v>132241</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="H14" s="7">
         <v>128</v>
@@ -5808,13 +5793,13 @@
         <v>126100</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="M14" s="7">
         <v>253</v>
@@ -5823,13 +5808,13 @@
         <v>258341</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5885,7 +5870,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5897,13 +5882,13 @@
         <v>13755</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>377</v>
-      </c>
       <c r="G16" s="7" t="s">
-        <v>378</v>
+        <v>260</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -5912,13 +5897,13 @@
         <v>10260</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>379</v>
+        <v>200</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>380</v>
+        <v>256</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -5927,13 +5912,13 @@
         <v>24015</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5948,13 +5933,13 @@
         <v>27613</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>386</v>
+        <v>27</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -5963,13 +5948,13 @@
         <v>15667</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="M17" s="7">
         <v>39</v>
@@ -5978,13 +5963,13 @@
         <v>43280</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5999,13 +5984,13 @@
         <v>82615</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="H18" s="7">
         <v>59</v>
@@ -6014,13 +5999,13 @@
         <v>59514</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="M18" s="7">
         <v>137</v>
@@ -6029,13 +6014,13 @@
         <v>142129</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>267</v>
+        <v>39</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6050,13 +6035,13 @@
         <v>163882</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="H19" s="7">
         <v>93</v>
@@ -6065,13 +6050,13 @@
         <v>89115</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="M19" s="7">
         <v>252</v>
@@ -6080,13 +6065,13 @@
         <v>252997</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6101,13 +6086,13 @@
         <v>171723</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>185</v>
+        <v>406</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="H20" s="7">
         <v>141</v>
@@ -6116,13 +6101,13 @@
         <v>142859</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="M20" s="7">
         <v>305</v>
@@ -6131,13 +6116,13 @@
         <v>314582</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6205,13 +6190,13 @@
         <v>11129</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>71</v>
+        <v>416</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -6220,13 +6205,13 @@
         <v>7353</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
@@ -6235,13 +6220,13 @@
         <v>18482</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6256,13 +6241,13 @@
         <v>15946</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>260</v>
+        <v>123</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="H23" s="7">
         <v>14</v>
@@ -6271,13 +6256,13 @@
         <v>14507</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>258</v>
+        <v>426</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="M23" s="7">
         <v>29</v>
@@ -6286,13 +6271,13 @@
         <v>30453</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>431</v>
+        <v>257</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>432</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6307,13 +6292,13 @@
         <v>61696</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="H24" s="7">
         <v>34</v>
@@ -6322,13 +6307,13 @@
         <v>37213</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>173</v>
+        <v>432</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="M24" s="7">
         <v>90</v>
@@ -6337,13 +6322,13 @@
         <v>98909</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>87</v>
+        <v>435</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6358,13 +6343,13 @@
         <v>124712</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>441</v>
       </c>
       <c r="H25" s="7">
         <v>68</v>
@@ -6373,13 +6358,13 @@
         <v>72120</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>444</v>
       </c>
       <c r="M25" s="7">
         <v>181</v>
@@ -6388,13 +6373,13 @@
         <v>196832</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6409,13 +6394,13 @@
         <v>154245</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>450</v>
       </c>
       <c r="H26" s="7">
         <v>100</v>
@@ -6424,10 +6409,10 @@
         <v>111926</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>452</v>
@@ -6442,10 +6427,10 @@
         <v>453</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>333</v>
+        <v>454</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6501,7 +6486,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6513,7 +6498,7 @@
         <v>4274</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>455</v>
+        <v>123</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>456</v>
@@ -6546,10 +6531,10 @@
         <v>68</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6567,7 +6552,7 @@
         <v>462</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>111</v>
+        <v>421</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>463</v>
@@ -6585,7 +6570,7 @@
         <v>465</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -6594,13 +6579,13 @@
         <v>10767</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6615,10 +6600,10 @@
         <v>40031</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>471</v>
@@ -6684,10 +6669,10 @@
         <v>481</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>47</v>
+        <v>482</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M31" s="7">
         <v>66</v>
@@ -6696,13 +6681,13 @@
         <v>76195</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6717,13 +6702,13 @@
         <v>77033</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H32" s="7">
         <v>31</v>
@@ -6732,13 +6717,13 @@
         <v>36694</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M32" s="7">
         <v>98</v>
@@ -6747,13 +6732,13 @@
         <v>113728</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6809,7 +6794,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6827,7 +6812,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6842,7 +6827,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6857,7 +6842,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6878,7 +6863,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -6887,13 +6872,13 @@
         <v>1183</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -6902,13 +6887,13 @@
         <v>1183</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6923,13 +6908,13 @@
         <v>1024</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -6944,7 +6929,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -6953,13 +6938,13 @@
         <v>1024</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6974,13 +6959,13 @@
         <v>2930</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -6995,7 +6980,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M37" s="7">
         <v>3</v>
@@ -7004,13 +6989,13 @@
         <v>2930</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7025,13 +7010,13 @@
         <v>2031</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H38" s="7">
         <v>4</v>
@@ -7040,13 +7025,13 @@
         <v>4007</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M38" s="7">
         <v>6</v>
@@ -7055,13 +7040,13 @@
         <v>6039</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>443</v>
+        <v>517</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7129,13 +7114,13 @@
         <v>40899</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>518</v>
+        <v>117</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H40" s="7">
         <v>37</v>
@@ -7147,10 +7132,10 @@
         <v>24</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>199</v>
+        <v>521</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="M40" s="7">
         <v>75</v>
@@ -7159,13 +7144,13 @@
         <v>77655</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>79</v>
+        <v>523</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>521</v>
+        <v>253</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7180,13 +7165,13 @@
         <v>74402</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H41" s="7">
         <v>60</v>
@@ -7195,13 +7180,13 @@
         <v>60685</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>113</v>
+        <v>529</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>527</v>
+        <v>388</v>
       </c>
       <c r="M41" s="7">
         <v>129</v>
@@ -7210,13 +7195,13 @@
         <v>135087</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7231,13 +7216,13 @@
         <v>269881</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="H42" s="7">
         <v>169</v>
@@ -7246,13 +7231,13 @@
         <v>173494</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="M42" s="7">
         <v>422</v>
@@ -7261,13 +7246,13 @@
         <v>443375</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7282,13 +7267,13 @@
         <v>466056</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>278</v>
+        <v>541</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="H43" s="7">
         <v>308</v>
@@ -7297,13 +7282,13 @@
         <v>310578</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>542</v>
+        <v>407</v>
       </c>
       <c r="M43" s="7">
         <v>746</v>
@@ -7312,13 +7297,13 @@
         <v>776634</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7333,13 +7318,13 @@
         <v>571083</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="H44" s="7">
         <v>439</v>
@@ -7348,13 +7333,13 @@
         <v>455660</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="M44" s="7">
         <v>964</v>
@@ -7363,13 +7348,13 @@
         <v>1026743</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>552</v>
+        <v>150</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>554</v>
+        <v>453</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7425,7 +7410,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -7447,7 +7432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F9A6F8-6B92-4CF4-9CFA-A67592CD90CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E43985-330D-4780-83CD-C85E53CC326D}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7464,7 +7449,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7571,13 +7556,13 @@
         <v>161</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>420</v>
+        <v>558</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -7586,13 +7571,13 @@
         <v>2138</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -7601,13 +7586,13 @@
         <v>2299</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>559</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>209</v>
+        <v>561</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7628,7 +7613,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -7643,7 +7628,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -7658,7 +7643,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>562</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7673,10 +7658,10 @@
         <v>3264</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>564</v>
+        <v>456</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>565</v>
@@ -7727,7 +7712,7 @@
         <v>571</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>572</v>
@@ -7742,10 +7727,10 @@
         <v>573</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>574</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>575</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -7754,13 +7739,13 @@
         <v>19676</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>577</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7775,13 +7760,13 @@
         <v>12698</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>580</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>581</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -7790,13 +7775,13 @@
         <v>12231</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>582</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>583</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>584</v>
       </c>
       <c r="M8" s="7">
         <v>14</v>
@@ -7805,13 +7790,13 @@
         <v>24929</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>585</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>586</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7879,13 +7864,13 @@
         <v>7898</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>588</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>589</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>590</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -7894,13 +7879,13 @@
         <v>1139</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>422</v>
+        <v>589</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -7912,10 +7897,10 @@
         <v>462</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>592</v>
+        <v>28</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7930,13 +7915,13 @@
         <v>5200</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>63</v>
+        <v>593</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>595</v>
+        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -7945,13 +7930,13 @@
         <v>4858</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>596</v>
+        <v>202</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>593</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="M11" s="7">
         <v>7</v>
@@ -7960,13 +7945,13 @@
         <v>10058</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7981,13 +7966,13 @@
         <v>21298</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="H12" s="7">
         <v>13</v>
@@ -7996,13 +7981,13 @@
         <v>11627</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="M12" s="7">
         <v>28</v>
@@ -8011,13 +7996,13 @@
         <v>32925</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>82</v>
+        <v>606</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8032,13 +8017,13 @@
         <v>29535</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>611</v>
+        <v>147</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -8047,13 +8032,13 @@
         <v>23463</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>215</v>
+        <v>609</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="M13" s="7">
         <v>44</v>
@@ -8062,13 +8047,13 @@
         <v>52998</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8083,13 +8068,13 @@
         <v>46813</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>616</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>618</v>
       </c>
       <c r="H14" s="7">
         <v>46</v>
@@ -8098,13 +8083,13 @@
         <v>50267</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>619</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>621</v>
       </c>
       <c r="M14" s="7">
         <v>72</v>
@@ -8113,13 +8098,13 @@
         <v>97080</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>622</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>623</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8175,7 +8160,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -8187,13 +8172,13 @@
         <v>6638</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>625</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>626</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>627</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -8202,13 +8187,13 @@
         <v>4515</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>628</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>629</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>630</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -8217,13 +8202,13 @@
         <v>11153</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>631</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>632</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8238,13 +8223,13 @@
         <v>7375</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>634</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>635</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>636</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -8253,13 +8238,13 @@
         <v>2862</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>637</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>638</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>639</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -8268,13 +8253,13 @@
         <v>10238</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>640</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8289,13 +8274,13 @@
         <v>15611</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>642</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>643</v>
-      </c>
       <c r="G18" s="7" t="s">
-        <v>644</v>
+        <v>87</v>
       </c>
       <c r="H18" s="7">
         <v>29</v>
@@ -8304,13 +8289,13 @@
         <v>20959</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>645</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>646</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>647</v>
       </c>
       <c r="M18" s="7">
         <v>47</v>
@@ -8319,13 +8304,13 @@
         <v>36571</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>648</v>
+        <v>353</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8340,13 +8325,13 @@
         <v>26531</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="H19" s="7">
         <v>34</v>
@@ -8355,13 +8340,13 @@
         <v>22722</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="M19" s="7">
         <v>59</v>
@@ -8370,13 +8355,13 @@
         <v>49252</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8391,13 +8376,13 @@
         <v>52296</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>660</v>
+        <v>287</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="H20" s="7">
         <v>65</v>
@@ -8406,13 +8391,13 @@
         <v>49614</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="M20" s="7">
         <v>114</v>
@@ -8421,13 +8406,13 @@
         <v>101909</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8498,10 +8483,10 @@
         <v>464</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>109</v>
+        <v>665</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>294</v>
+        <v>666</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -8510,13 +8495,13 @@
         <v>7263</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>669</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>670</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>671</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
@@ -8525,13 +8510,13 @@
         <v>13007</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8546,13 +8531,13 @@
         <v>10877</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>674</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>675</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>676</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -8561,13 +8546,13 @@
         <v>5671</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="M23" s="7">
         <v>18</v>
@@ -8576,13 +8561,13 @@
         <v>16549</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>680</v>
+        <v>382</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8597,13 +8582,13 @@
         <v>25620</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>19</v>
+        <v>340</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="H24" s="7">
         <v>35</v>
@@ -8612,13 +8597,13 @@
         <v>21727</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="M24" s="7">
         <v>60</v>
@@ -8627,13 +8612,13 @@
         <v>47347</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>479</v>
+        <v>683</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8648,13 +8633,13 @@
         <v>29632</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>688</v>
+        <v>86</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="H25" s="7">
         <v>46</v>
@@ -8663,13 +8648,13 @@
         <v>29689</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="M25" s="7">
         <v>79</v>
@@ -8678,13 +8663,13 @@
         <v>59321</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8699,13 +8684,13 @@
         <v>109468</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="H26" s="7">
         <v>86</v>
@@ -8714,13 +8699,13 @@
         <v>56329</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="M26" s="7">
         <v>143</v>
@@ -8729,13 +8714,13 @@
         <v>165796</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8791,7 +8776,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8803,13 +8788,13 @@
         <v>3774</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -8818,13 +8803,13 @@
         <v>1169</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>389</v>
+        <v>109</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -8836,10 +8821,10 @@
         <v>21</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>707</v>
+        <v>256</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8854,13 +8839,13 @@
         <v>5850</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>387</v>
+        <v>705</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -8869,13 +8854,13 @@
         <v>3851</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>712</v>
+        <v>341</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
@@ -8884,13 +8869,13 @@
         <v>9701</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>347</v>
+        <v>163</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8905,13 +8890,13 @@
         <v>16376</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="H30" s="7">
         <v>15</v>
@@ -8920,13 +8905,13 @@
         <v>9415</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>719</v>
+        <v>318</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="M30" s="7">
         <v>33</v>
@@ -8935,13 +8920,13 @@
         <v>25791</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8956,13 +8941,13 @@
         <v>17314</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="H31" s="7">
         <v>18</v>
@@ -8971,13 +8956,13 @@
         <v>9675</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>188</v>
+        <v>724</v>
       </c>
       <c r="M31" s="7">
         <v>37</v>
@@ -8986,13 +8971,13 @@
         <v>26989</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9007,13 +8992,13 @@
         <v>26022</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="H32" s="7">
         <v>25</v>
@@ -9022,13 +9007,13 @@
         <v>15953</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="M32" s="7">
         <v>51</v>
@@ -9037,13 +9022,13 @@
         <v>41975</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9099,7 +9084,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -9111,13 +9096,13 @@
         <v>607</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -9126,13 +9111,13 @@
         <v>871</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="M34" s="7">
         <v>3</v>
@@ -9141,13 +9126,13 @@
         <v>1478</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>410</v>
+        <v>743</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9168,7 +9153,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -9183,7 +9168,7 @@
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -9198,7 +9183,7 @@
         <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9213,13 +9198,13 @@
         <v>717</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>750</v>
+        <v>145</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
@@ -9228,13 +9213,13 @@
         <v>1080</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="M36" s="7">
         <v>3</v>
@@ -9243,13 +9228,13 @@
         <v>1797</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9264,13 +9249,13 @@
         <v>563</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
@@ -9279,13 +9264,13 @@
         <v>1114</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="M37" s="7">
         <v>3</v>
@@ -9294,13 +9279,13 @@
         <v>1676</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9315,13 +9300,13 @@
         <v>2573</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="H38" s="7">
         <v>6</v>
@@ -9330,13 +9315,13 @@
         <v>3397</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="M38" s="7">
         <v>10</v>
@@ -9345,13 +9330,13 @@
         <v>5971</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9419,13 +9404,13 @@
         <v>24821</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>261</v>
+        <v>766</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>389</v>
+        <v>109</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="H40" s="7">
         <v>25</v>
@@ -9434,13 +9419,13 @@
         <v>17096</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="M40" s="7">
         <v>47</v>
@@ -9449,13 +9434,13 @@
         <v>41917</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>347</v>
+        <v>163</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>773</v>
+        <v>426</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9470,13 +9455,13 @@
         <v>29303</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="H41" s="7">
         <v>22</v>
@@ -9485,13 +9470,13 @@
         <v>17243</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="M41" s="7">
         <v>47</v>
@@ -9500,13 +9485,13 @@
         <v>46545</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>780</v>
+        <v>161</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>264</v>
+        <v>776</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9521,13 +9506,13 @@
         <v>82886</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="H42" s="7">
         <v>96</v>
@@ -9536,13 +9521,13 @@
         <v>65967</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="M42" s="7">
         <v>176</v>
@@ -9551,13 +9536,13 @@
         <v>148853</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9572,13 +9557,13 @@
         <v>110035</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="H43" s="7">
         <v>132</v>
@@ -9587,13 +9572,13 @@
         <v>99877</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="M43" s="7">
         <v>233</v>
@@ -9602,13 +9587,13 @@
         <v>209912</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9623,13 +9608,13 @@
         <v>249869</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>798</v>
+        <v>283</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="H44" s="7">
         <v>236</v>
@@ -9638,13 +9623,13 @@
         <v>187792</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="M44" s="7">
         <v>404</v>
@@ -9653,13 +9638,13 @@
         <v>437661</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9715,7 +9700,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6703-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6703-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4889675E-4A18-469D-84F8-75AA60F1790F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{514C708D-C0E3-48BF-BDEB-657B00793E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1899A79B-3680-43FF-8292-534337762B46}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6DC6766C-A19E-4ED7-AE9F-30EDA93D82BB}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="798">
   <si>
     <t>Población según si tiene tiempo de llevar al día su trabajo en 2012 (Tasa respuesta: 33,96%)</t>
   </si>
@@ -85,2362 +85,2353 @@
     <t>4,39%</t>
   </si>
   <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
     <t>1,08%</t>
   </si>
   <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
+    <t>9,64%</t>
   </si>
   <si>
     <t>4,01%</t>
   </si>
   <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
     <t>1,83%</t>
   </si>
   <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
   </si>
   <si>
     <t>18,29%</t>
   </si>
   <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tiene tiempo de llevar al día su trabajo en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
   </si>
   <si>
     <t>21,18%</t>
   </si>
   <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
   </si>
   <si>
     <t>23,28%</t>
   </si>
   <si>
-    <t>19,65%</t>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>Población según si tiene tiempo de llevar al día su trabajo en 2023 (Tasa respuesta: 10,37%)</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
   </si>
   <si>
     <t>15,28%</t>
   </si>
   <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
   </si>
   <si>
     <t>50,29%</t>
   </si>
   <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
   </si>
   <si>
     <t>5,26%</t>
   </si>
   <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
   </si>
   <si>
     <t>42,39%</t>
   </si>
   <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tiene tiempo de llevar al día su trabajo en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>Población según si tiene tiempo de llevar al día su trabajo en 2023 (Tasa respuesta: 10,37%)</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
+    <t>64,93%</t>
   </si>
   <si>
     <t>48,4%</t>
   </si>
   <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
   </si>
   <si>
     <t>49,46%</t>
   </si>
   <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
   </si>
 </sst>
 </file>
@@ -2852,7 +2843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB77A0A-D26B-4362-A497-49D7F14AD3FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F798C962-2DBF-4A8C-BFA4-2084C6A6707A}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3368,10 +3359,10 @@
         <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3386,13 +3377,13 @@
         <v>72789</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>52</v>
@@ -3401,13 +3392,13 @@
         <v>54462</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>125</v>
@@ -3416,13 +3407,13 @@
         <v>127251</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3437,13 +3428,13 @@
         <v>108153</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>75</v>
@@ -3452,13 +3443,13 @@
         <v>80434</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>180</v>
@@ -3467,13 +3458,13 @@
         <v>188587</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3488,13 +3479,13 @@
         <v>187566</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>114</v>
@@ -3503,13 +3494,13 @@
         <v>123661</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>290</v>
@@ -3518,13 +3509,13 @@
         <v>311227</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3580,7 +3571,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3592,13 +3583,13 @@
         <v>5827</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -3607,13 +3598,13 @@
         <v>5684</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -3622,13 +3613,13 @@
         <v>11511</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3643,13 +3634,13 @@
         <v>14837</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -3658,10 +3649,10 @@
         <v>12444</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>121</v>
@@ -3676,10 +3667,10 @@
         <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3694,13 +3685,13 @@
         <v>82553</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>51</v>
@@ -3709,13 +3700,13 @@
         <v>52851</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>134</v>
@@ -3724,13 +3715,13 @@
         <v>135404</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3745,13 +3736,13 @@
         <v>131205</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>78</v>
@@ -3760,13 +3751,13 @@
         <v>83046</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>207</v>
@@ -3775,13 +3766,13 @@
         <v>214252</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3796,13 +3787,13 @@
         <v>190766</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>127</v>
@@ -3811,13 +3802,13 @@
         <v>131793</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>305</v>
@@ -3826,13 +3817,13 @@
         <v>322559</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,7 +3879,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3900,13 +3891,13 @@
         <v>11757</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -3915,13 +3906,13 @@
         <v>8119</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>16</v>
@@ -3930,13 +3921,13 @@
         <v>19876</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3951,13 +3942,13 @@
         <v>7366</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -3966,13 +3957,13 @@
         <v>8534</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M23" s="7">
         <v>14</v>
@@ -3981,13 +3972,13 @@
         <v>15900</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,13 +3993,13 @@
         <v>72366</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>34</v>
@@ -4017,13 +4008,13 @@
         <v>40929</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>99</v>
@@ -4032,13 +4023,13 @@
         <v>113295</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,13 +4044,13 @@
         <v>120431</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>59</v>
@@ -4068,13 +4059,13 @@
         <v>69483</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>167</v>
@@ -4083,13 +4074,13 @@
         <v>189915</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4104,13 +4095,13 @@
         <v>157829</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>86</v>
@@ -4119,13 +4110,13 @@
         <v>98275</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>224</v>
@@ -4134,13 +4125,13 @@
         <v>256103</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4196,7 +4187,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4208,13 +4199,13 @@
         <v>967</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>115</v>
+        <v>196</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -4259,13 +4250,13 @@
         <v>3093</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>66</v>
+        <v>201</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -4274,13 +4265,13 @@
         <v>2345</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -4289,13 +4280,13 @@
         <v>5438</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4310,13 +4301,13 @@
         <v>29828</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H30" s="7">
         <v>13</v>
@@ -4325,13 +4316,13 @@
         <v>14585</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M30" s="7">
         <v>39</v>
@@ -4340,13 +4331,13 @@
         <v>44413</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4361,13 +4352,13 @@
         <v>45572</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H31" s="7">
         <v>17</v>
@@ -4376,13 +4367,13 @@
         <v>19470</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M31" s="7">
         <v>59</v>
@@ -4391,13 +4382,13 @@
         <v>65042</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4412,13 +4403,13 @@
         <v>77892</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H32" s="7">
         <v>30</v>
@@ -4427,13 +4418,13 @@
         <v>32347</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M32" s="7">
         <v>105</v>
@@ -4442,13 +4433,13 @@
         <v>110238</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4504,7 +4495,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4522,7 +4513,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -4537,7 +4528,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -4552,7 +4543,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4573,7 +4564,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -4588,7 +4579,7 @@
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -4603,7 +4594,7 @@
         <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4618,13 +4609,13 @@
         <v>1000</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -4633,13 +4624,13 @@
         <v>891</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -4648,13 +4639,13 @@
         <v>1890</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4669,13 +4660,13 @@
         <v>1017</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -4684,13 +4675,13 @@
         <v>967</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
@@ -4699,13 +4690,13 @@
         <v>1983</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4720,13 +4711,13 @@
         <v>1000</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -4735,13 +4726,13 @@
         <v>981</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
@@ -4750,13 +4741,13 @@
         <v>1980</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4824,13 +4815,13 @@
         <v>28069</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>66</v>
+        <v>201</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H40" s="7">
         <v>26</v>
@@ -4842,10 +4833,10 @@
         <v>68</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>252</v>
+        <v>21</v>
       </c>
       <c r="M40" s="7">
         <v>53</v>
@@ -4854,13 +4845,13 @@
         <v>57973</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>160</v>
+        <v>255</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4875,13 +4866,13 @@
         <v>34684</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H41" s="7">
         <v>32</v>
@@ -4890,13 +4881,13 @@
         <v>33761</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M41" s="7">
         <v>64</v>
@@ -4905,13 +4896,13 @@
         <v>68445</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4926,13 +4917,13 @@
         <v>269586</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H42" s="7">
         <v>161</v>
@@ -4941,13 +4932,13 @@
         <v>173520</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>39</v>
+        <v>268</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="M42" s="7">
         <v>420</v>
@@ -4956,13 +4947,13 @@
         <v>443105</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4977,13 +4968,13 @@
         <v>428008</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H43" s="7">
         <v>254</v>
@@ -4992,13 +4983,13 @@
         <v>279166</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M43" s="7">
         <v>660</v>
@@ -5007,13 +4998,13 @@
         <v>707174</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>220</v>
+        <v>281</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -5028,13 +5019,13 @@
         <v>661481</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="H44" s="7">
         <v>403</v>
@@ -5043,13 +5034,13 @@
         <v>432329</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="M44" s="7">
         <v>1013</v>
@@ -5058,13 +5049,13 @@
         <v>1093810</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5120,7 +5111,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -5142,7 +5133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41B7154F-09FA-49DB-83C3-1C144231CC22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A395AF5-D93B-4686-813F-53F28156482F}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5159,7 +5150,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5266,13 +5257,13 @@
         <v>1054</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>249</v>
+        <v>294</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>290</v>
+        <v>198</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -5281,13 +5272,13 @@
         <v>6235</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -5296,13 +5287,13 @@
         <v>7289</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5317,13 +5308,13 @@
         <v>4064</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -5332,13 +5323,13 @@
         <v>3815</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -5347,13 +5338,13 @@
         <v>7880</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5368,13 +5359,13 @@
         <v>15907</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="H6" s="7">
         <v>19</v>
@@ -5383,13 +5374,13 @@
         <v>18029</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="M6" s="7">
         <v>34</v>
@@ -5398,13 +5389,13 @@
         <v>33935</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5419,13 +5410,13 @@
         <v>24273</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="H7" s="7">
         <v>29</v>
@@ -5434,13 +5425,13 @@
         <v>29703</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="M7" s="7">
         <v>53</v>
@@ -5449,13 +5440,13 @@
         <v>53976</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5470,13 +5461,13 @@
         <v>33810</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="H8" s="7">
         <v>35</v>
@@ -5485,13 +5476,13 @@
         <v>34073</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M8" s="7">
         <v>65</v>
@@ -5500,13 +5491,13 @@
         <v>67884</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>330</v>
+        <v>276</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5574,13 +5565,13 @@
         <v>10686</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -5592,10 +5583,10 @@
         <v>68</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -5604,13 +5595,13 @@
         <v>19305</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>337</v>
+        <v>196</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>338</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5625,13 +5616,13 @@
         <v>19366</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H11" s="7">
         <v>23</v>
@@ -5640,13 +5631,13 @@
         <v>22158</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>155</v>
+        <v>345</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="M11" s="7">
         <v>42</v>
@@ -5655,13 +5646,13 @@
         <v>41525</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5676,13 +5667,13 @@
         <v>68609</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="H12" s="7">
         <v>39</v>
@@ -5691,13 +5682,13 @@
         <v>36417</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M12" s="7">
         <v>106</v>
@@ -5706,13 +5697,13 @@
         <v>105026</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5727,13 +5718,13 @@
         <v>113283</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H13" s="7">
         <v>84</v>
@@ -5742,13 +5733,13 @@
         <v>80421</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M13" s="7">
         <v>191</v>
@@ -5757,13 +5748,13 @@
         <v>193704</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5778,13 +5769,13 @@
         <v>132241</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H14" s="7">
         <v>128</v>
@@ -5793,13 +5784,13 @@
         <v>126100</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M14" s="7">
         <v>253</v>
@@ -5808,13 +5799,13 @@
         <v>258341</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5870,7 +5861,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5882,13 +5873,13 @@
         <v>13755</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>260</v>
+        <v>379</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -5897,13 +5888,13 @@
         <v>10260</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>380</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>256</v>
+        <v>28</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -5912,13 +5903,13 @@
         <v>24015</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>379</v>
+        <v>253</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5933,13 +5924,13 @@
         <v>27613</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>27</v>
+        <v>304</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -5948,13 +5939,13 @@
         <v>15667</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="M17" s="7">
         <v>39</v>
@@ -5963,13 +5954,13 @@
         <v>43280</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>388</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5984,13 +5975,13 @@
         <v>82615</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="H18" s="7">
         <v>59</v>
@@ -5999,13 +5990,13 @@
         <v>59514</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M18" s="7">
         <v>137</v>
@@ -6014,13 +6005,13 @@
         <v>142129</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>39</v>
+        <v>268</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6035,13 +6026,13 @@
         <v>163882</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="H19" s="7">
         <v>93</v>
@@ -6050,13 +6041,13 @@
         <v>89115</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>402</v>
+        <v>369</v>
       </c>
       <c r="M19" s="7">
         <v>252</v>
@@ -6065,13 +6056,13 @@
         <v>252997</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6086,13 +6077,13 @@
         <v>171723</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H20" s="7">
         <v>141</v>
@@ -6101,13 +6092,13 @@
         <v>142859</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M20" s="7">
         <v>305</v>
@@ -6116,7 +6107,7 @@
         <v>314582</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>413</v>
@@ -6178,7 +6169,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6193,10 +6184,10 @@
         <v>415</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -6205,13 +6196,13 @@
         <v>7353</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
@@ -6223,10 +6214,10 @@
         <v>415</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>422</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6241,13 +6232,13 @@
         <v>15946</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>123</v>
+        <v>296</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H23" s="7">
         <v>14</v>
@@ -6256,13 +6247,13 @@
         <v>14507</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>426</v>
+        <v>157</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="M23" s="7">
         <v>29</v>
@@ -6271,13 +6262,13 @@
         <v>30453</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>428</v>
+        <v>76</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>257</v>
+        <v>425</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>67</v>
+        <v>426</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6292,13 +6283,13 @@
         <v>61696</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>431</v>
       </c>
       <c r="H24" s="7">
         <v>34</v>
@@ -6307,13 +6298,13 @@
         <v>37213</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>434</v>
       </c>
       <c r="M24" s="7">
         <v>90</v>
@@ -6322,13 +6313,13 @@
         <v>98909</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>437</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6343,13 +6334,13 @@
         <v>124712</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H25" s="7">
         <v>68</v>
@@ -6358,13 +6349,13 @@
         <v>72120</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="M25" s="7">
         <v>181</v>
@@ -6373,13 +6364,13 @@
         <v>196832</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6394,13 +6385,13 @@
         <v>154245</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>447</v>
+        <v>409</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H26" s="7">
         <v>100</v>
@@ -6409,13 +6400,13 @@
         <v>111926</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="M26" s="7">
         <v>237</v>
@@ -6424,13 +6415,13 @@
         <v>266170</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6486,7 +6477,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6498,13 +6489,13 @@
         <v>4274</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>123</v>
+        <v>452</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>456</v>
+        <v>195</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -6513,13 +6504,13 @@
         <v>4289</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>459</v>
+        <v>305</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="M28" s="7">
         <v>8</v>
@@ -6531,10 +6522,10 @@
         <v>68</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>71</v>
+        <v>456</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6549,13 +6540,13 @@
         <v>7412</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>421</v>
+        <v>459</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -6564,10 +6555,10 @@
         <v>3355</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>463</v>
@@ -6579,13 +6570,13 @@
         <v>10767</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6600,13 +6591,13 @@
         <v>40031</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>471</v>
       </c>
       <c r="H30" s="7">
         <v>18</v>
@@ -6615,13 +6606,13 @@
         <v>22322</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>474</v>
       </c>
       <c r="M30" s="7">
         <v>54</v>
@@ -6630,13 +6621,13 @@
         <v>62352</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>475</v>
+        <v>136</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6651,13 +6642,13 @@
         <v>36975</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H31" s="7">
         <v>34</v>
@@ -6666,13 +6657,13 @@
         <v>39219</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="M31" s="7">
         <v>66</v>
@@ -6681,13 +6672,13 @@
         <v>76195</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6702,13 +6693,13 @@
         <v>77033</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="H32" s="7">
         <v>31</v>
@@ -6717,13 +6708,13 @@
         <v>36694</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>492</v>
+        <v>147</v>
       </c>
       <c r="M32" s="7">
         <v>98</v>
@@ -6732,13 +6723,13 @@
         <v>113728</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6794,7 +6785,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6812,7 +6803,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6827,7 +6818,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6842,7 +6833,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6863,7 +6854,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -6872,13 +6863,13 @@
         <v>1183</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -6887,13 +6878,13 @@
         <v>1183</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6908,13 +6899,13 @@
         <v>1024</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -6929,7 +6920,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -6938,13 +6929,13 @@
         <v>1024</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6959,13 +6950,13 @@
         <v>2930</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -6980,7 +6971,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="M37" s="7">
         <v>3</v>
@@ -6989,13 +6980,13 @@
         <v>2930</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7010,13 +7001,13 @@
         <v>2031</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="H38" s="7">
         <v>4</v>
@@ -7025,13 +7016,13 @@
         <v>4007</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M38" s="7">
         <v>6</v>
@@ -7040,13 +7031,13 @@
         <v>6039</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7114,13 +7105,13 @@
         <v>40899</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>117</v>
+        <v>253</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="H40" s="7">
         <v>37</v>
@@ -7132,10 +7123,10 @@
         <v>24</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>521</v>
+        <v>452</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="M40" s="7">
         <v>75</v>
@@ -7144,13 +7135,13 @@
         <v>77655</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>253</v>
+        <v>519</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7165,13 +7156,13 @@
         <v>74402</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>526</v>
+        <v>65</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="H41" s="7">
         <v>60</v>
@@ -7180,13 +7171,13 @@
         <v>60685</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>388</v>
+        <v>525</v>
       </c>
       <c r="M41" s="7">
         <v>129</v>
@@ -7195,13 +7186,13 @@
         <v>135087</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7216,13 +7207,13 @@
         <v>269881</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="H42" s="7">
         <v>169</v>
@@ -7231,13 +7222,13 @@
         <v>173494</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="M42" s="7">
         <v>422</v>
@@ -7246,13 +7237,13 @@
         <v>443375</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7267,13 +7258,13 @@
         <v>466056</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="H43" s="7">
         <v>308</v>
@@ -7282,13 +7273,13 @@
         <v>310578</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>407</v>
+        <v>542</v>
       </c>
       <c r="M43" s="7">
         <v>746</v>
@@ -7297,13 +7288,13 @@
         <v>776634</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>547</v>
+        <v>280</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>548</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7318,13 +7309,13 @@
         <v>571083</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="H44" s="7">
         <v>439</v>
@@ -7333,13 +7324,13 @@
         <v>455660</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="M44" s="7">
         <v>964</v>
@@ -7348,13 +7339,13 @@
         <v>1026743</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>150</v>
+        <v>550</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>453</v>
+        <v>552</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7410,7 +7401,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -7432,7 +7423,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E43985-330D-4780-83CD-C85E53CC326D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B0E505-775D-4B78-9D65-2A043058724B}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7449,7 +7440,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7556,13 +7547,13 @@
         <v>161</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -7571,13 +7562,13 @@
         <v>2138</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -7586,13 +7577,13 @@
         <v>2299</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>112</v>
+        <v>558</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7613,7 +7604,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -7628,7 +7619,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -7643,7 +7634,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>118</v>
+        <v>562</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7658,10 +7649,10 @@
         <v>3264</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>564</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>565</v>
@@ -7712,7 +7703,7 @@
         <v>571</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>291</v>
+        <v>528</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>572</v>
@@ -7727,10 +7718,10 @@
         <v>573</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>224</v>
+        <v>574</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -7739,13 +7730,13 @@
         <v>19676</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7760,13 +7751,13 @@
         <v>12698</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -7775,13 +7766,13 @@
         <v>12231</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>319</v>
+        <v>582</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="M8" s="7">
         <v>14</v>
@@ -7790,13 +7781,13 @@
         <v>24929</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7864,13 +7855,13 @@
         <v>7898</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>587</v>
+        <v>252</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -7879,7 +7870,7 @@
         <v>1139</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>589</v>
+        <v>251</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
@@ -7894,10 +7885,10 @@
         <v>9037</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>591</v>
@@ -7921,7 +7912,7 @@
         <v>593</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>209</v>
+        <v>594</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -7930,13 +7921,13 @@
         <v>4858</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>202</v>
+        <v>595</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="M11" s="7">
         <v>7</v>
@@ -7945,13 +7936,13 @@
         <v>10058</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7966,13 +7957,13 @@
         <v>21298</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="H12" s="7">
         <v>13</v>
@@ -7981,13 +7972,13 @@
         <v>11627</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>602</v>
+        <v>295</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="M12" s="7">
         <v>28</v>
@@ -7996,13 +7987,13 @@
         <v>32925</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8017,13 +8008,13 @@
         <v>29535</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>147</v>
+        <v>611</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -8032,13 +8023,13 @@
         <v>23463</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>610</v>
+        <v>355</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="M13" s="7">
         <v>44</v>
@@ -8047,13 +8038,13 @@
         <v>52998</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8068,13 +8059,13 @@
         <v>46813</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="H14" s="7">
         <v>46</v>
@@ -8083,13 +8074,13 @@
         <v>50267</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="M14" s="7">
         <v>72</v>
@@ -8098,13 +8089,13 @@
         <v>97080</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8160,7 +8151,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -8172,13 +8163,13 @@
         <v>6638</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -8187,13 +8178,13 @@
         <v>4515</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>627</v>
+        <v>569</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -8202,13 +8193,13 @@
         <v>11153</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8223,13 +8214,13 @@
         <v>7375</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>634</v>
+        <v>357</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -8256,10 +8247,10 @@
         <v>638</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>639</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8274,13 +8265,13 @@
         <v>15611</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>641</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>642</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H18" s="7">
         <v>29</v>
@@ -8304,13 +8295,13 @@
         <v>36571</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>353</v>
+        <v>646</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8325,13 +8316,13 @@
         <v>26531</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H19" s="7">
         <v>34</v>
@@ -8340,13 +8331,13 @@
         <v>22722</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="M19" s="7">
         <v>59</v>
@@ -8355,13 +8346,13 @@
         <v>49252</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>656</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8376,13 +8367,13 @@
         <v>52296</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>287</v>
+        <v>657</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H20" s="7">
         <v>65</v>
@@ -8391,7 +8382,7 @@
         <v>49614</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>659</v>
+        <v>149</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>660</v>
@@ -8468,7 +8459,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -8480,7 +8471,7 @@
         <v>5744</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>665</v>
@@ -8498,10 +8489,10 @@
         <v>667</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>668</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>669</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
@@ -8510,10 +8501,10 @@
         <v>13007</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>670</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>624</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>671</v>
@@ -8549,10 +8540,10 @@
         <v>592</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>627</v>
+        <v>675</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="M23" s="7">
         <v>18</v>
@@ -8561,13 +8552,13 @@
         <v>16549</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>676</v>
+        <v>345</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>677</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8585,10 +8576,10 @@
         <v>678</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>340</v>
+        <v>679</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H24" s="7">
         <v>35</v>
@@ -8597,13 +8588,13 @@
         <v>21727</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>681</v>
+        <v>604</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>682</v>
+        <v>82</v>
       </c>
       <c r="M24" s="7">
         <v>60</v>
@@ -8612,13 +8603,13 @@
         <v>47347</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>683</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>684</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8633,10 +8624,10 @@
         <v>29632</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>86</v>
+        <v>684</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>525</v>
+        <v>685</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>686</v>
@@ -8687,10 +8678,10 @@
         <v>693</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>694</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>695</v>
       </c>
       <c r="H26" s="7">
         <v>86</v>
@@ -8699,10 +8690,10 @@
         <v>56329</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>696</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>621</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>697</v>
@@ -8717,7 +8708,7 @@
         <v>698</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>618</v>
+        <v>105</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>699</v>
@@ -8776,7 +8767,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8788,13 +8779,13 @@
         <v>3774</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>700</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>701</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>702</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -8803,7 +8794,7 @@
         <v>1169</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>109</v>
+        <v>702</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
@@ -8821,10 +8812,10 @@
         <v>21</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>256</v>
+        <v>704</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8842,10 +8833,10 @@
         <v>705</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>706</v>
+        <v>415</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>707</v>
+        <v>42</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -8854,13 +8845,13 @@
         <v>3851</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>708</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>709</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
@@ -8869,13 +8860,13 @@
         <v>9701</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>710</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8890,13 +8881,13 @@
         <v>16376</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>712</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>713</v>
-      </c>
       <c r="G30" s="7" t="s">
-        <v>714</v>
+        <v>134</v>
       </c>
       <c r="H30" s="7">
         <v>15</v>
@@ -8905,13 +8896,13 @@
         <v>9415</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="K30" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>715</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>716</v>
       </c>
       <c r="M30" s="7">
         <v>33</v>
@@ -8920,13 +8911,13 @@
         <v>25791</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>717</v>
       </c>
-      <c r="P30" s="7" t="s">
-        <v>718</v>
-      </c>
       <c r="Q30" s="7" t="s">
-        <v>719</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8941,13 +8932,13 @@
         <v>17314</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>720</v>
+        <v>85</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="H31" s="7">
         <v>18</v>
@@ -8956,13 +8947,13 @@
         <v>9675</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="M31" s="7">
         <v>37</v>
@@ -8971,13 +8962,13 @@
         <v>26989</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>726</v>
+        <v>534</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8992,13 +8983,13 @@
         <v>26022</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="H32" s="7">
         <v>25</v>
@@ -9007,13 +8998,13 @@
         <v>15953</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>733</v>
+        <v>57</v>
       </c>
       <c r="M32" s="7">
         <v>51</v>
@@ -9022,13 +9013,13 @@
         <v>41975</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9084,7 +9075,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -9096,13 +9087,13 @@
         <v>607</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -9111,13 +9102,13 @@
         <v>871</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="M34" s="7">
         <v>3</v>
@@ -9126,13 +9117,13 @@
         <v>1478</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9153,7 +9144,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -9168,7 +9159,7 @@
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>745</v>
+        <v>216</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -9183,7 +9174,7 @@
         <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9198,13 +9189,13 @@
         <v>717</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>145</v>
+        <v>741</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
@@ -9213,13 +9204,13 @@
         <v>1080</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="M36" s="7">
         <v>3</v>
@@ -9228,13 +9219,13 @@
         <v>1797</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9249,13 +9240,13 @@
         <v>563</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
@@ -9264,13 +9255,13 @@
         <v>1114</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="M37" s="7">
         <v>3</v>
@@ -9279,13 +9270,13 @@
         <v>1676</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>526</v>
+        <v>751</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9300,13 +9291,13 @@
         <v>2573</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="H38" s="7">
         <v>6</v>
@@ -9315,13 +9306,13 @@
         <v>3397</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="M38" s="7">
         <v>10</v>
@@ -9330,13 +9321,13 @@
         <v>5971</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9404,13 +9395,13 @@
         <v>24821</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>109</v>
+        <v>763</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="H40" s="7">
         <v>25</v>
@@ -9419,13 +9410,13 @@
         <v>17096</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>261</v>
+        <v>515</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>769</v>
+        <v>295</v>
       </c>
       <c r="M40" s="7">
         <v>47</v>
@@ -9434,13 +9425,13 @@
         <v>41917</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>163</v>
+        <v>766</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>426</v>
+        <v>767</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9455,13 +9446,13 @@
         <v>29303</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>771</v>
+        <v>457</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="H41" s="7">
         <v>22</v>
@@ -9470,13 +9461,13 @@
         <v>17243</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>677</v>
+        <v>772</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="M41" s="7">
         <v>47</v>
@@ -9485,13 +9476,13 @@
         <v>46545</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>161</v>
+        <v>774</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>776</v>
+        <v>737</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9506,13 +9497,13 @@
         <v>82886</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>779</v>
+        <v>34</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>780</v>
+        <v>212</v>
       </c>
       <c r="H42" s="7">
         <v>96</v>
@@ -9521,13 +9512,13 @@
         <v>65967</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>741</v>
+        <v>777</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="M42" s="7">
         <v>176</v>
@@ -9536,13 +9527,13 @@
         <v>148853</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>784</v>
+        <v>215</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9557,13 +9548,13 @@
         <v>110035</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="H43" s="7">
         <v>132</v>
@@ -9572,13 +9563,13 @@
         <v>99877</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="M43" s="7">
         <v>233</v>
@@ -9587,13 +9578,13 @@
         <v>209912</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>791</v>
+        <v>125</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>268</v>
+        <v>787</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9608,13 +9599,13 @@
         <v>249869</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>283</v>
+        <v>790</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="H44" s="7">
         <v>236</v>
@@ -9623,13 +9614,13 @@
         <v>187792</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="M44" s="7">
         <v>404</v>
@@ -9638,13 +9629,13 @@
         <v>437661</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9700,7 +9691,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6703-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6703-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{514C708D-C0E3-48BF-BDEB-657B00793E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C474668-85C8-458D-8C91-FDEC922D19FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6DC6766C-A19E-4ED7-AE9F-30EDA93D82BB}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7D426204-9EB5-430D-8F94-85021479D998}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="803">
   <si>
     <t>Población según si tiene tiempo de llevar al día su trabajo en 2012 (Tasa respuesta: 33,96%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -223,7 +223,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>2,48%</t>
@@ -361,7 +361,7 @@
     <t>51,27%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>1,37%</t>
@@ -490,7 +490,7 @@
     <t>49,28%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>3,18%</t>
@@ -622,7 +622,7 @@
     <t>47,17%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>0,61%</t>
@@ -748,7 +748,7 @@
     <t>55,43%</t>
   </si>
   <si>
-    <t>65 y más</t>
+    <t>65-74</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -793,6 +793,12 @@
     <t>83,64%</t>
   </si>
   <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
     <t>1,25%</t>
   </si>
   <si>
@@ -1519,55 +1525,49 @@
     <t>30,57%</t>
   </si>
   <si>
-    <t>15,69%</t>
-  </si>
-  <si>
     <t>22,79%</t>
   </si>
   <si>
     <t>82,18%</t>
   </si>
   <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
   </si>
   <si>
     <t>77,21%</t>
@@ -1576,13 +1576,19 @@
     <t>17,82%</t>
   </si>
   <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
   </si>
   <si>
     <t>2,88%</t>
@@ -1702,736 +1708,745 @@
     <t>Población según si tiene tiempo de llevar al día su trabajo en 2023 (Tasa respuesta: 10,37%)</t>
   </si>
   <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
   </si>
   <si>
     <t>19,12%</t>
   </si>
   <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
   </si>
   <si>
     <t>1,86%</t>
   </si>
   <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
+    <t>7,45%</t>
   </si>
   <si>
     <t>2,8%</t>
   </si>
   <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
   </si>
 </sst>
 </file>
@@ -2843,8 +2858,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F798C962-2DBF-4A8C-BFA4-2084C6A6707A}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C2EA3F-5F32-4255-B81A-24B246D47A74}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4803,55 +4818,49 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>251</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>27</v>
-      </c>
-      <c r="D40" s="7">
-        <v>28069</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D40" s="7"/>
       <c r="E40" s="7" t="s">
-        <v>201</v>
+        <v>252</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>252</v>
       </c>
       <c r="H40" s="7">
-        <v>26</v>
-      </c>
-      <c r="I40" s="7">
-        <v>29904</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" s="7"/>
       <c r="J40" s="7" t="s">
-        <v>68</v>
+        <v>252</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
       <c r="M40" s="7">
-        <v>53</v>
-      </c>
-      <c r="N40" s="7">
-        <v>57973</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N40" s="7"/>
       <c r="O40" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4860,49 +4869,43 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>32</v>
-      </c>
-      <c r="D41" s="7">
-        <v>34684</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D41" s="7"/>
       <c r="E41" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="H41" s="7">
-        <v>32</v>
-      </c>
-      <c r="I41" s="7">
-        <v>33761</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="M41" s="7">
-        <v>64</v>
-      </c>
-      <c r="N41" s="7">
-        <v>68445</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N41" s="7"/>
       <c r="O41" s="7" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4911,49 +4914,43 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>259</v>
-      </c>
-      <c r="D42" s="7">
-        <v>269586</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D42" s="7"/>
       <c r="E42" s="7" t="s">
-        <v>209</v>
+        <v>252</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="H42" s="7">
-        <v>161</v>
-      </c>
-      <c r="I42" s="7">
-        <v>173520</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="M42" s="7">
-        <v>420</v>
-      </c>
-      <c r="N42" s="7">
-        <v>443105</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N42" s="7"/>
       <c r="O42" s="7" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4962,49 +4959,43 @@
         <v>40</v>
       </c>
       <c r="C43" s="7">
-        <v>406</v>
-      </c>
-      <c r="D43" s="7">
-        <v>428008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D43" s="7"/>
       <c r="E43" s="7" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="H43" s="7">
-        <v>254</v>
-      </c>
-      <c r="I43" s="7">
-        <v>279166</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" s="7"/>
       <c r="J43" s="7" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="M43" s="7">
-        <v>660</v>
-      </c>
-      <c r="N43" s="7">
-        <v>707174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N43" s="7"/>
       <c r="O43" s="7" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -5013,49 +5004,43 @@
         <v>50</v>
       </c>
       <c r="C44" s="7">
-        <v>610</v>
-      </c>
-      <c r="D44" s="7">
-        <v>661481</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D44" s="7"/>
       <c r="E44" s="7" t="s">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>285</v>
+        <v>252</v>
       </c>
       <c r="H44" s="7">
-        <v>403</v>
-      </c>
-      <c r="I44" s="7">
-        <v>432329</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" s="7"/>
       <c r="J44" s="7" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>288</v>
+        <v>252</v>
       </c>
       <c r="M44" s="7">
-        <v>1013</v>
-      </c>
-      <c r="N44" s="7">
-        <v>1093810</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N44" s="7"/>
       <c r="O44" s="7" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>290</v>
+        <v>252</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5064,63 +5049,366 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>0</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="M45" s="7">
+        <v>0</v>
+      </c>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>27</v>
+      </c>
+      <c r="D46" s="7">
+        <v>28069</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H46" s="7">
+        <v>26</v>
+      </c>
+      <c r="I46" s="7">
+        <v>29904</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M46" s="7">
+        <v>53</v>
+      </c>
+      <c r="N46" s="7">
+        <v>57973</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>32</v>
+      </c>
+      <c r="D47" s="7">
+        <v>34684</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H47" s="7">
+        <v>32</v>
+      </c>
+      <c r="I47" s="7">
+        <v>33761</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="M47" s="7">
+        <v>64</v>
+      </c>
+      <c r="N47" s="7">
+        <v>68445</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>259</v>
+      </c>
+      <c r="D48" s="7">
+        <v>269586</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H48" s="7">
+        <v>161</v>
+      </c>
+      <c r="I48" s="7">
+        <v>173520</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="M48" s="7">
+        <v>420</v>
+      </c>
+      <c r="N48" s="7">
+        <v>443105</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7">
+        <v>406</v>
+      </c>
+      <c r="D49" s="7">
+        <v>428008</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H49" s="7">
+        <v>254</v>
+      </c>
+      <c r="I49" s="7">
+        <v>279166</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="M49" s="7">
+        <v>660</v>
+      </c>
+      <c r="N49" s="7">
+        <v>707174</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="7">
+        <v>610</v>
+      </c>
+      <c r="D50" s="7">
+        <v>661481</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H50" s="7">
+        <v>403</v>
+      </c>
+      <c r="I50" s="7">
+        <v>432329</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="M50" s="7">
+        <v>1013</v>
+      </c>
+      <c r="N50" s="7">
+        <v>1093810</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>1334</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D51" s="7">
         <v>1421827</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="E51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" s="7">
         <v>876</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I51" s="7">
         <v>948680</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="J51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M51" s="7">
         <v>2210</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N51" s="7">
         <v>2370507</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>292</v>
+      <c r="O51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5133,8 +5421,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A395AF5-D93B-4686-813F-53F28156482F}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD28C168-FB2D-4117-85CE-35C7F44569BF}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5150,7 +5438,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5257,7 +5545,7 @@
         <v>1054</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
@@ -5272,13 +5560,13 @@
         <v>6235</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -5287,13 +5575,13 @@
         <v>7289</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5308,13 +5596,13 @@
         <v>4064</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -5323,13 +5611,13 @@
         <v>3815</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -5338,13 +5626,13 @@
         <v>7880</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5359,13 +5647,13 @@
         <v>15907</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H6" s="7">
         <v>19</v>
@@ -5374,13 +5662,13 @@
         <v>18029</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M6" s="7">
         <v>34</v>
@@ -5389,13 +5677,13 @@
         <v>33935</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5410,13 +5698,13 @@
         <v>24273</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H7" s="7">
         <v>29</v>
@@ -5425,13 +5713,13 @@
         <v>29703</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M7" s="7">
         <v>53</v>
@@ -5440,13 +5728,13 @@
         <v>53976</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5461,13 +5749,13 @@
         <v>33810</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H8" s="7">
         <v>35</v>
@@ -5476,13 +5764,13 @@
         <v>34073</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M8" s="7">
         <v>65</v>
@@ -5491,13 +5779,13 @@
         <v>67884</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5565,13 +5853,13 @@
         <v>10686</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -5583,10 +5871,10 @@
         <v>68</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -5601,7 +5889,7 @@
         <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5616,13 +5904,13 @@
         <v>19366</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H11" s="7">
         <v>23</v>
@@ -5631,13 +5919,13 @@
         <v>22158</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M11" s="7">
         <v>42</v>
@@ -5646,13 +5934,13 @@
         <v>41525</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5667,13 +5955,13 @@
         <v>68609</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H12" s="7">
         <v>39</v>
@@ -5682,13 +5970,13 @@
         <v>36417</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M12" s="7">
         <v>106</v>
@@ -5697,13 +5985,13 @@
         <v>105026</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5718,13 +6006,13 @@
         <v>113283</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="H13" s="7">
         <v>84</v>
@@ -5733,13 +6021,13 @@
         <v>80421</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="M13" s="7">
         <v>191</v>
@@ -5748,13 +6036,13 @@
         <v>193704</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5769,13 +6057,13 @@
         <v>132241</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="H14" s="7">
         <v>128</v>
@@ -5784,13 +6072,13 @@
         <v>126100</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="M14" s="7">
         <v>253</v>
@@ -5799,13 +6087,13 @@
         <v>258341</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5873,13 +6161,13 @@
         <v>13755</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -5888,13 +6176,13 @@
         <v>10260</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>28</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -5903,13 +6191,13 @@
         <v>24015</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5924,13 +6212,13 @@
         <v>27613</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -5939,13 +6227,13 @@
         <v>15667</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M17" s="7">
         <v>39</v>
@@ -5954,10 +6242,10 @@
         <v>43280</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>67</v>
@@ -5975,13 +6263,13 @@
         <v>82615</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H18" s="7">
         <v>59</v>
@@ -5990,28 +6278,28 @@
         <v>59514</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M18" s="7">
         <v>137</v>
       </c>
       <c r="N18" s="7">
-        <v>142129</v>
+        <v>142128</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6026,13 +6314,13 @@
         <v>163882</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H19" s="7">
         <v>93</v>
@@ -6041,13 +6329,13 @@
         <v>89115</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="M19" s="7">
         <v>252</v>
@@ -6056,13 +6344,13 @@
         <v>252997</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6077,13 +6365,13 @@
         <v>171723</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H20" s="7">
         <v>141</v>
@@ -6092,28 +6380,28 @@
         <v>142859</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M20" s="7">
         <v>305</v>
       </c>
       <c r="N20" s="7">
-        <v>314582</v>
+        <v>314581</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6155,7 +6443,7 @@
         <v>756</v>
       </c>
       <c r="N21" s="7">
-        <v>777002</v>
+        <v>777001</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -6181,13 +6469,13 @@
         <v>11129</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>155</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -6196,13 +6484,13 @@
         <v>7353</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
@@ -6211,10 +6499,10 @@
         <v>18482</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>113</v>
@@ -6232,13 +6520,13 @@
         <v>15946</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="H23" s="7">
         <v>14</v>
@@ -6247,13 +6535,13 @@
         <v>14507</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>157</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="M23" s="7">
         <v>29</v>
@@ -6265,10 +6553,10 @@
         <v>76</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6283,13 +6571,13 @@
         <v>61696</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="H24" s="7">
         <v>34</v>
@@ -6298,13 +6586,13 @@
         <v>37213</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="M24" s="7">
         <v>90</v>
@@ -6313,10 +6601,10 @@
         <v>98909</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>83</v>
@@ -6334,13 +6622,13 @@
         <v>124712</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="H25" s="7">
         <v>68</v>
@@ -6349,13 +6637,13 @@
         <v>72120</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="M25" s="7">
         <v>181</v>
@@ -6364,13 +6652,13 @@
         <v>196832</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6385,13 +6673,13 @@
         <v>154245</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="H26" s="7">
         <v>100</v>
@@ -6400,13 +6688,13 @@
         <v>111926</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="M26" s="7">
         <v>237</v>
@@ -6415,13 +6703,13 @@
         <v>266170</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6489,13 +6777,13 @@
         <v>4274</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>195</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -6504,13 +6792,13 @@
         <v>4289</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="M28" s="7">
         <v>8</v>
@@ -6522,10 +6810,10 @@
         <v>68</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6540,13 +6828,13 @@
         <v>7412</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -6555,13 +6843,13 @@
         <v>3355</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -6570,13 +6858,13 @@
         <v>10767</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6591,13 +6879,13 @@
         <v>40031</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="H30" s="7">
         <v>18</v>
@@ -6606,13 +6894,13 @@
         <v>22322</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="M30" s="7">
         <v>54</v>
@@ -6624,10 +6912,10 @@
         <v>136</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6642,13 +6930,13 @@
         <v>36975</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="H31" s="7">
         <v>34</v>
@@ -6657,13 +6945,13 @@
         <v>39219</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="M31" s="7">
         <v>66</v>
@@ -6672,13 +6960,13 @@
         <v>76195</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6693,13 +6981,13 @@
         <v>77033</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="H32" s="7">
         <v>31</v>
@@ -6708,10 +6996,10 @@
         <v>36694</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>147</v>
@@ -6723,13 +7011,13 @@
         <v>113728</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6803,7 +7091,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>238</v>
+        <v>494</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6818,7 +7106,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6833,7 +7121,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>493</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6854,7 +7142,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>238</v>
+        <v>494</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -6863,13 +7151,13 @@
         <v>1183</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -6878,13 +7166,13 @@
         <v>1183</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6899,13 +7187,13 @@
         <v>1024</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -6920,7 +7208,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -6929,13 +7217,13 @@
         <v>1024</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6950,13 +7238,13 @@
         <v>2930</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>504</v>
+        <v>240</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -6971,7 +7259,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="M37" s="7">
         <v>3</v>
@@ -6995,10 +7283,10 @@
         <v>50</v>
       </c>
       <c r="C38" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38" s="7">
-        <v>2031</v>
+        <v>1236</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>508</v>
@@ -7025,10 +7313,10 @@
         <v>240</v>
       </c>
       <c r="M38" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N38" s="7">
-        <v>6039</v>
+        <v>5244</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>512</v>
@@ -7046,10 +7334,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D39" s="7">
-        <v>5985</v>
+        <v>5190</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>60</v>
@@ -7076,10 +7364,10 @@
         <v>60</v>
       </c>
       <c r="M39" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N39" s="7">
-        <v>11176</v>
+        <v>10381</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>60</v>
@@ -7093,55 +7381,53 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>251</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="D40" s="7">
-        <v>40899</v>
+        <v>0</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="F40" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>516</v>
-      </c>
       <c r="H40" s="7">
-        <v>37</v>
-      </c>
-      <c r="I40" s="7">
-        <v>36756</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" s="7"/>
       <c r="J40" s="7" t="s">
-        <v>24</v>
+        <v>252</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>452</v>
+        <v>252</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>517</v>
+        <v>252</v>
       </c>
       <c r="M40" s="7">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="N40" s="7">
-        <v>77655</v>
+        <v>0</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>518</v>
+        <v>11</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>519</v>
+        <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7150,49 +7436,47 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="D41" s="7">
-        <v>74402</v>
+        <v>0</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>521</v>
+        <v>11</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="H41" s="7">
-        <v>60</v>
-      </c>
-      <c r="I41" s="7">
-        <v>60685</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
-        <v>523</v>
+        <v>252</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>524</v>
+        <v>252</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>525</v>
+        <v>252</v>
       </c>
       <c r="M41" s="7">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="N41" s="7">
-        <v>135087</v>
+        <v>0</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>526</v>
+        <v>11</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>527</v>
+        <v>12</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7201,49 +7485,47 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="D42" s="7">
-        <v>269881</v>
+        <v>0</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>529</v>
+        <v>12</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="H42" s="7">
-        <v>169</v>
-      </c>
-      <c r="I42" s="7">
-        <v>173494</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
-        <v>531</v>
+        <v>252</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>532</v>
+        <v>252</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>533</v>
+        <v>252</v>
       </c>
       <c r="M42" s="7">
-        <v>422</v>
+        <v>0</v>
       </c>
       <c r="N42" s="7">
-        <v>443375</v>
+        <v>0</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>534</v>
+        <v>11</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>535</v>
+        <v>12</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7252,49 +7534,47 @@
         <v>40</v>
       </c>
       <c r="C43" s="7">
-        <v>438</v>
+        <v>0</v>
       </c>
       <c r="D43" s="7">
-        <v>466056</v>
+        <v>0</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>537</v>
+        <v>11</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>538</v>
+        <v>12</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>539</v>
+        <v>515</v>
       </c>
       <c r="H43" s="7">
-        <v>308</v>
-      </c>
-      <c r="I43" s="7">
-        <v>310578</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" s="7"/>
       <c r="J43" s="7" t="s">
-        <v>540</v>
+        <v>252</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>541</v>
+        <v>252</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>542</v>
+        <v>252</v>
       </c>
       <c r="M43" s="7">
-        <v>746</v>
+        <v>0</v>
       </c>
       <c r="N43" s="7">
-        <v>776634</v>
+        <v>0</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>543</v>
+        <v>11</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>280</v>
+        <v>12</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>140</v>
+        <v>515</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7303,49 +7583,47 @@
         <v>50</v>
       </c>
       <c r="C44" s="7">
-        <v>525</v>
+        <v>1</v>
       </c>
       <c r="D44" s="7">
-        <v>571083</v>
+        <v>795</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>544</v>
+        <v>240</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>545</v>
+        <v>516</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>546</v>
+        <v>60</v>
       </c>
       <c r="H44" s="7">
-        <v>439</v>
-      </c>
-      <c r="I44" s="7">
-        <v>455660</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" s="7"/>
       <c r="J44" s="7" t="s">
-        <v>547</v>
+        <v>252</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>548</v>
+        <v>252</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>549</v>
+        <v>252</v>
       </c>
       <c r="M44" s="7">
-        <v>964</v>
+        <v>1</v>
       </c>
       <c r="N44" s="7">
-        <v>1026743</v>
+        <v>795</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>550</v>
+        <v>240</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>551</v>
+        <v>516</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>552</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7354,63 +7632,370 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>1</v>
+      </c>
+      <c r="D45" s="7">
+        <v>795</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="M45" s="7">
+        <v>1</v>
+      </c>
+      <c r="N45" s="7">
+        <v>795</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>38</v>
+      </c>
+      <c r="D46" s="7">
+        <v>40899</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="H46" s="7">
+        <v>37</v>
+      </c>
+      <c r="I46" s="7">
+        <v>36756</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="M46" s="7">
+        <v>75</v>
+      </c>
+      <c r="N46" s="7">
+        <v>77655</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>69</v>
+      </c>
+      <c r="D47" s="7">
+        <v>74402</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="H47" s="7">
+        <v>60</v>
+      </c>
+      <c r="I47" s="7">
+        <v>60685</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="M47" s="7">
+        <v>129</v>
+      </c>
+      <c r="N47" s="7">
+        <v>135087</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>253</v>
+      </c>
+      <c r="D48" s="7">
+        <v>269881</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="H48" s="7">
+        <v>169</v>
+      </c>
+      <c r="I48" s="7">
+        <v>173494</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="M48" s="7">
+        <v>422</v>
+      </c>
+      <c r="N48" s="7">
+        <v>443375</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7">
+        <v>438</v>
+      </c>
+      <c r="D49" s="7">
+        <v>466056</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="H49" s="7">
+        <v>308</v>
+      </c>
+      <c r="I49" s="7">
+        <v>310578</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="M49" s="7">
+        <v>746</v>
+      </c>
+      <c r="N49" s="7">
+        <v>776634</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="7">
+        <v>525</v>
+      </c>
+      <c r="D50" s="7">
+        <v>571083</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="H50" s="7">
+        <v>439</v>
+      </c>
+      <c r="I50" s="7">
+        <v>455660</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="M50" s="7">
+        <v>964</v>
+      </c>
+      <c r="N50" s="7">
+        <v>1026743</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>1323</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D51" s="7">
         <v>1422322</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="E51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" s="7">
         <v>1013</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I51" s="7">
         <v>1037172</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="J51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M51" s="7">
         <v>2336</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N51" s="7">
         <v>2459494</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>292</v>
+      <c r="O51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -7423,8 +8008,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B0E505-775D-4B78-9D65-2A043058724B}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF835E9-D48C-474E-82AC-BBEF7946FDA5}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -7440,7 +8025,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7544,46 +8129,46 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>555</v>
+        <v>350</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>2138</v>
+        <v>1833</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>2299</v>
+        <v>2005</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>559</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7646,7 +8231,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>3264</v>
+        <v>3094</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>563</v>
@@ -7661,7 +8246,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>1158</v>
+        <v>1059</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>566</v>
@@ -7676,16 +8261,16 @@
         <v>5</v>
       </c>
       <c r="N6" s="7">
-        <v>4422</v>
+        <v>4153</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>568</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7697,46 +8282,46 @@
         <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>6462</v>
+        <v>8961</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>571</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>572</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
       </c>
       <c r="I7" s="7">
-        <v>13214</v>
+        <v>11334</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>574</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>575</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
       </c>
       <c r="N7" s="7">
-        <v>19676</v>
+        <v>20295</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>576</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>577</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7748,46 +8333,46 @@
         <v>6</v>
       </c>
       <c r="D8" s="7">
-        <v>12698</v>
+        <v>11166</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>579</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>581</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
       </c>
       <c r="I8" s="7">
-        <v>12231</v>
+        <v>10924</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>582</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>583</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>584</v>
       </c>
       <c r="M8" s="7">
         <v>14</v>
       </c>
       <c r="N8" s="7">
-        <v>24929</v>
+        <v>22089</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>586</v>
+        <v>90</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7799,7 +8384,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="7">
-        <v>22585</v>
+        <v>23392</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -7814,7 +8399,7 @@
         <v>19</v>
       </c>
       <c r="I9" s="7">
-        <v>28742</v>
+        <v>25150</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -7829,7 +8414,7 @@
         <v>32</v>
       </c>
       <c r="N9" s="7">
-        <v>51327</v>
+        <v>48542</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -7852,43 +8437,43 @@
         <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>7898</v>
+        <v>7230</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>252</v>
+        <v>586</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>1139</v>
+        <v>940</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>251</v>
+        <v>75</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
       </c>
       <c r="N10" s="7">
-        <v>9037</v>
+        <v>8170</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>458</v>
+        <v>589</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>114</v>
+        <v>590</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>591</v>
@@ -7903,7 +8488,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>592</v>
@@ -7918,7 +8503,7 @@
         <v>4</v>
       </c>
       <c r="I11" s="7">
-        <v>4858</v>
+        <v>4264</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>595</v>
@@ -7933,16 +8518,16 @@
         <v>7</v>
       </c>
       <c r="N11" s="7">
-        <v>10058</v>
+        <v>9364</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>598</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>599</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7954,46 +8539,46 @@
         <v>15</v>
       </c>
       <c r="D12" s="7">
-        <v>21298</v>
+        <v>21131</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>601</v>
+        <v>499</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>603</v>
+        <v>320</v>
       </c>
       <c r="H12" s="7">
         <v>13</v>
       </c>
       <c r="I12" s="7">
-        <v>11627</v>
+        <v>10914</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>295</v>
+        <v>602</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="M12" s="7">
         <v>28</v>
       </c>
       <c r="N12" s="7">
-        <v>32925</v>
+        <v>32045</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>606</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>607</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8005,40 +8590,40 @@
         <v>20</v>
       </c>
       <c r="D13" s="7">
-        <v>29535</v>
+        <v>29328</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>609</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>610</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>611</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
       </c>
       <c r="I13" s="7">
-        <v>23463</v>
+        <v>21723</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>612</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>613</v>
       </c>
       <c r="M13" s="7">
         <v>44</v>
       </c>
       <c r="N13" s="7">
-        <v>52998</v>
+        <v>51051</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>505</v>
+        <v>613</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>614</v>
@@ -8056,7 +8641,7 @@
         <v>26</v>
       </c>
       <c r="D14" s="7">
-        <v>46813</v>
+        <v>44264</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>616</v>
@@ -8071,7 +8656,7 @@
         <v>46</v>
       </c>
       <c r="I14" s="7">
-        <v>50267</v>
+        <v>44496</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>619</v>
@@ -8086,7 +8671,7 @@
         <v>72</v>
       </c>
       <c r="N14" s="7">
-        <v>97080</v>
+        <v>88760</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>622</v>
@@ -8107,7 +8692,7 @@
         <v>70</v>
       </c>
       <c r="D15" s="7">
-        <v>110743</v>
+        <v>107053</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -8122,7 +8707,7 @@
         <v>88</v>
       </c>
       <c r="I15" s="7">
-        <v>91354</v>
+        <v>82336</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -8137,7 +8722,7 @@
         <v>158</v>
       </c>
       <c r="N15" s="7">
-        <v>202097</v>
+        <v>189389</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -8160,7 +8745,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>6638</v>
+        <v>6129</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>625</v>
@@ -8175,31 +8760,31 @@
         <v>7</v>
       </c>
       <c r="I16" s="7">
-        <v>4515</v>
+        <v>4164</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>628</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>569</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>629</v>
+        <v>26</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
       </c>
       <c r="N16" s="7">
-        <v>11153</v>
+        <v>10293</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>630</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>631</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8211,43 +8796,43 @@
         <v>6</v>
       </c>
       <c r="D17" s="7">
-        <v>7375</v>
+        <v>7258</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>633</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>634</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>2862</v>
+        <v>2576</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>635</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>636</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>637</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
       </c>
       <c r="N17" s="7">
-        <v>10238</v>
+        <v>9834</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>638</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>639</v>
@@ -8262,7 +8847,7 @@
         <v>18</v>
       </c>
       <c r="D18" s="7">
-        <v>15611</v>
+        <v>15388</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>640</v>
@@ -8277,7 +8862,7 @@
         <v>29</v>
       </c>
       <c r="I18" s="7">
-        <v>20959</v>
+        <v>19485</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>643</v>
@@ -8292,7 +8877,7 @@
         <v>47</v>
       </c>
       <c r="N18" s="7">
-        <v>36571</v>
+        <v>34874</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>646</v>
@@ -8313,7 +8898,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="7">
-        <v>26531</v>
+        <v>25405</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>649</v>
@@ -8328,7 +8913,7 @@
         <v>34</v>
       </c>
       <c r="I19" s="7">
-        <v>22722</v>
+        <v>21230</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>652</v>
@@ -8337,22 +8922,22 @@
         <v>653</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>654</v>
+        <v>407</v>
       </c>
       <c r="M19" s="7">
         <v>59</v>
       </c>
       <c r="N19" s="7">
-        <v>49252</v>
+        <v>46635</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>655</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8364,25 +8949,25 @@
         <v>49</v>
       </c>
       <c r="D20" s="7">
-        <v>52296</v>
+        <v>49202</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>657</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>658</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>659</v>
       </c>
       <c r="H20" s="7">
         <v>65</v>
       </c>
       <c r="I20" s="7">
-        <v>49614</v>
+        <v>45612</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>149</v>
+        <v>659</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>660</v>
@@ -8394,7 +8979,7 @@
         <v>114</v>
       </c>
       <c r="N20" s="7">
-        <v>101909</v>
+        <v>94813</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>662</v>
@@ -8415,7 +9000,7 @@
         <v>103</v>
       </c>
       <c r="D21" s="7">
-        <v>108451</v>
+        <v>103383</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -8430,7 +9015,7 @@
         <v>139</v>
       </c>
       <c r="I21" s="7">
-        <v>100672</v>
+        <v>93067</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -8445,7 +9030,7 @@
         <v>242</v>
       </c>
       <c r="N21" s="7">
-        <v>209123</v>
+        <v>196449</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -8468,46 +9053,46 @@
         <v>5</v>
       </c>
       <c r="D22" s="7">
-        <v>5744</v>
+        <v>5391</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>461</v>
+        <v>71</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>665</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>666</v>
+        <v>425</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
       </c>
       <c r="I22" s="7">
-        <v>7263</v>
+        <v>6555</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>461</v>
+        <v>258</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
       </c>
       <c r="N22" s="7">
-        <v>13007</v>
+        <v>11946</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>669</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>670</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8519,46 +9104,46 @@
         <v>10</v>
       </c>
       <c r="D23" s="7">
-        <v>10877</v>
+        <v>10452</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>672</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>673</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>674</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
       </c>
       <c r="I23" s="7">
-        <v>5671</v>
+        <v>5237</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>592</v>
+        <v>673</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>675</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>676</v>
       </c>
       <c r="M23" s="7">
         <v>18</v>
       </c>
       <c r="N23" s="7">
-        <v>16549</v>
+        <v>15689</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>345</v>
+        <v>676</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>634</v>
+        <v>677</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8570,46 +9155,46 @@
         <v>25</v>
       </c>
       <c r="D24" s="7">
-        <v>25620</v>
+        <v>24546</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H24" s="7">
         <v>35</v>
       </c>
       <c r="I24" s="7">
-        <v>21727</v>
+        <v>20628</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>681</v>
+        <v>126</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>604</v>
+        <v>682</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>82</v>
+        <v>683</v>
       </c>
       <c r="M24" s="7">
         <v>60</v>
       </c>
       <c r="N24" s="7">
-        <v>47347</v>
+        <v>45174</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>174</v>
+        <v>684</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8621,46 +9206,46 @@
         <v>33</v>
       </c>
       <c r="D25" s="7">
-        <v>29632</v>
+        <v>28488</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="H25" s="7">
         <v>46</v>
       </c>
       <c r="I25" s="7">
-        <v>29689</v>
+        <v>27297</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="M25" s="7">
         <v>79</v>
       </c>
       <c r="N25" s="7">
-        <v>59321</v>
+        <v>55785</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8672,46 +9257,46 @@
         <v>57</v>
       </c>
       <c r="D26" s="7">
-        <v>109468</v>
+        <v>298293</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>693</v>
+        <v>514</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>489</v>
+        <v>696</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="H26" s="7">
         <v>86</v>
       </c>
       <c r="I26" s="7">
-        <v>56329</v>
+        <v>51863</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>695</v>
+        <v>486</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="M26" s="7">
         <v>143</v>
       </c>
       <c r="N26" s="7">
-        <v>165796</v>
+        <v>350156</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>105</v>
+        <v>701</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8723,7 +9308,7 @@
         <v>130</v>
       </c>
       <c r="D27" s="7">
-        <v>181341</v>
+        <v>367170</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -8738,7 +9323,7 @@
         <v>187</v>
       </c>
       <c r="I27" s="7">
-        <v>120679</v>
+        <v>111580</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -8753,7 +9338,7 @@
         <v>317</v>
       </c>
       <c r="N27" s="7">
-        <v>302020</v>
+        <v>478750</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -8776,46 +9361,46 @@
         <v>4</v>
       </c>
       <c r="D28" s="7">
-        <v>3774</v>
+        <v>3582</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>379</v>
+        <v>703</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
       </c>
       <c r="I28" s="7">
-        <v>1169</v>
+        <v>1070</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>702</v>
+        <v>200</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
       </c>
       <c r="N28" s="7">
-        <v>4943</v>
+        <v>4652</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>21</v>
+        <v>707</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>703</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8827,46 +9412,46 @@
         <v>6</v>
       </c>
       <c r="D29" s="7">
-        <v>5850</v>
+        <v>5480</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>42</v>
+        <v>710</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
       </c>
       <c r="I29" s="7">
-        <v>3851</v>
+        <v>3524</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
       </c>
       <c r="N29" s="7">
-        <v>9701</v>
+        <v>9004</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>679</v>
+        <v>715</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8878,46 +9463,46 @@
         <v>18</v>
       </c>
       <c r="D30" s="7">
-        <v>16376</v>
+        <v>15426</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>134</v>
+        <v>541</v>
       </c>
       <c r="H30" s="7">
         <v>15</v>
       </c>
       <c r="I30" s="7">
-        <v>9415</v>
+        <v>8678</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="M30" s="7">
         <v>33</v>
       </c>
       <c r="N30" s="7">
-        <v>25791</v>
+        <v>24104</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>716</v>
+        <v>125</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>282</v>
+        <v>723</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8929,46 +9514,46 @@
         <v>19</v>
       </c>
       <c r="D31" s="7">
-        <v>17314</v>
+        <v>16353</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>85</v>
+        <v>724</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>718</v>
+        <v>604</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="H31" s="7">
         <v>18</v>
       </c>
       <c r="I31" s="7">
-        <v>9675</v>
+        <v>9204</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>467</v>
+        <v>726</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>720</v>
+        <v>650</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="M31" s="7">
         <v>37</v>
       </c>
       <c r="N31" s="7">
-        <v>26989</v>
+        <v>25557</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>534</v>
+        <v>729</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8980,46 +9565,46 @@
         <v>26</v>
       </c>
       <c r="D32" s="7">
-        <v>26022</v>
+        <v>23997</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>724</v>
+        <v>731</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="H32" s="7">
         <v>25</v>
       </c>
       <c r="I32" s="7">
-        <v>15953</v>
+        <v>14324</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>727</v>
+        <v>734</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>57</v>
+        <v>736</v>
       </c>
       <c r="M32" s="7">
         <v>51</v>
       </c>
       <c r="N32" s="7">
-        <v>41975</v>
+        <v>38320</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>729</v>
+        <v>737</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9031,7 +9616,7 @@
         <v>73</v>
       </c>
       <c r="D33" s="7">
-        <v>69336</v>
+        <v>64838</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>60</v>
@@ -9046,7 +9631,7 @@
         <v>66</v>
       </c>
       <c r="I33" s="7">
-        <v>40063</v>
+        <v>36800</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>60</v>
@@ -9061,7 +9646,7 @@
         <v>139</v>
       </c>
       <c r="N33" s="7">
-        <v>109399</v>
+        <v>101637</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>60</v>
@@ -9084,46 +9669,46 @@
         <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>607</v>
+        <v>584</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>732</v>
+        <v>87</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
       </c>
       <c r="I34" s="7">
-        <v>871</v>
+        <v>822</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>734</v>
+        <v>741</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>735</v>
+        <v>742</v>
       </c>
       <c r="M34" s="7">
         <v>3</v>
       </c>
       <c r="N34" s="7">
-        <v>1478</v>
+        <v>1405</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>737</v>
+        <v>744</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>738</v>
+        <v>745</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9144,7 +9729,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>739</v>
+        <v>238</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -9174,7 +9759,7 @@
         <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>561</v>
+        <v>746</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9186,46 +9771,46 @@
         <v>1</v>
       </c>
       <c r="D36" s="7">
-        <v>717</v>
+        <v>784</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
       </c>
       <c r="I36" s="7">
-        <v>1080</v>
+        <v>1057</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>742</v>
+        <v>749</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="M36" s="7">
         <v>3</v>
       </c>
       <c r="N36" s="7">
-        <v>1797</v>
+        <v>1841</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>744</v>
+        <v>751</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>745</v>
+        <v>595</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9237,46 +9822,46 @@
         <v>1</v>
       </c>
       <c r="D37" s="7">
-        <v>563</v>
+        <v>512</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>746</v>
+        <v>753</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>747</v>
+        <v>754</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
       </c>
       <c r="I37" s="7">
-        <v>1114</v>
+        <v>1028</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>748</v>
+        <v>755</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
       <c r="M37" s="7">
         <v>3</v>
       </c>
       <c r="N37" s="7">
-        <v>1676</v>
+        <v>1540</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9285,49 +9870,49 @@
         <v>50</v>
       </c>
       <c r="C38" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" s="7">
-        <v>2573</v>
+        <v>1662</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>754</v>
+        <v>11</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="H38" s="7">
         <v>6</v>
       </c>
       <c r="I38" s="7">
-        <v>3397</v>
+        <v>3166</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="M38" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N38" s="7">
-        <v>5971</v>
+        <v>4829</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>760</v>
+        <v>543</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9336,10 +9921,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D39" s="7">
-        <v>4460</v>
+        <v>3542</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>60</v>
@@ -9354,7 +9939,7 @@
         <v>12</v>
       </c>
       <c r="I39" s="7">
-        <v>6462</v>
+        <v>6073</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>60</v>
@@ -9366,10 +9951,10 @@
         <v>60</v>
       </c>
       <c r="M39" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N39" s="7">
-        <v>10922</v>
+        <v>9615</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>60</v>
@@ -9383,55 +9968,53 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>251</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D40" s="7">
-        <v>24821</v>
+        <v>0</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>762</v>
+        <v>11</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>763</v>
+        <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>764</v>
+        <v>515</v>
       </c>
       <c r="H40" s="7">
-        <v>25</v>
-      </c>
-      <c r="I40" s="7">
-        <v>17096</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" s="7"/>
       <c r="J40" s="7" t="s">
-        <v>765</v>
+        <v>252</v>
       </c>
       <c r="K40" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="M40" s="7">
+        <v>0</v>
+      </c>
+      <c r="N40" s="7">
+        <v>0</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>515</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="M40" s="7">
-        <v>47</v>
-      </c>
-      <c r="N40" s="7">
-        <v>41917</v>
-      </c>
-      <c r="O40" s="7" t="s">
-        <v>766</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>767</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9440,49 +10023,47 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D41" s="7">
-        <v>29303</v>
+        <v>0</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>457</v>
+        <v>11</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>769</v>
+        <v>12</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>770</v>
+        <v>515</v>
       </c>
       <c r="H41" s="7">
-        <v>22</v>
-      </c>
-      <c r="I41" s="7">
-        <v>17243</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
-        <v>771</v>
+        <v>252</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>772</v>
+        <v>252</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>773</v>
+        <v>252</v>
       </c>
       <c r="M41" s="7">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="N41" s="7">
-        <v>46545</v>
+        <v>0</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>774</v>
+        <v>11</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>737</v>
+        <v>12</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>775</v>
+        <v>515</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9491,49 +10072,47 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D42" s="7">
-        <v>82886</v>
+        <v>0</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>776</v>
+        <v>11</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>212</v>
+        <v>515</v>
       </c>
       <c r="H42" s="7">
-        <v>96</v>
-      </c>
-      <c r="I42" s="7">
-        <v>65967</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
-        <v>356</v>
+        <v>252</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>777</v>
+        <v>252</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>778</v>
+        <v>252</v>
       </c>
       <c r="M42" s="7">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="N42" s="7">
-        <v>148853</v>
+        <v>0</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>779</v>
+        <v>11</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>780</v>
+        <v>12</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>215</v>
+        <v>515</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9542,49 +10121,47 @@
         <v>40</v>
       </c>
       <c r="C43" s="7">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="D43" s="7">
-        <v>110035</v>
+        <v>0</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>781</v>
+        <v>11</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>782</v>
+        <v>12</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>783</v>
+        <v>515</v>
       </c>
       <c r="H43" s="7">
-        <v>132</v>
-      </c>
-      <c r="I43" s="7">
-        <v>99877</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" s="7"/>
       <c r="J43" s="7" t="s">
-        <v>784</v>
+        <v>252</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>785</v>
+        <v>252</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>786</v>
+        <v>252</v>
       </c>
       <c r="M43" s="7">
-        <v>233</v>
+        <v>0</v>
       </c>
       <c r="N43" s="7">
-        <v>209912</v>
+        <v>0</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>787</v>
+        <v>12</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>788</v>
+        <v>515</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9593,49 +10170,47 @@
         <v>50</v>
       </c>
       <c r="C44" s="7">
-        <v>168</v>
+        <v>1</v>
       </c>
       <c r="D44" s="7">
-        <v>249869</v>
+        <v>746</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>789</v>
+        <v>240</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>790</v>
+        <v>516</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>791</v>
+        <v>60</v>
       </c>
       <c r="H44" s="7">
-        <v>236</v>
-      </c>
-      <c r="I44" s="7">
-        <v>187792</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" s="7"/>
       <c r="J44" s="7" t="s">
-        <v>792</v>
+        <v>252</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>793</v>
+        <v>252</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>794</v>
+        <v>252</v>
       </c>
       <c r="M44" s="7">
-        <v>404</v>
+        <v>1</v>
       </c>
       <c r="N44" s="7">
-        <v>437661</v>
+        <v>746</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>795</v>
+        <v>240</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>796</v>
+        <v>516</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>797</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9644,63 +10219,370 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>1</v>
+      </c>
+      <c r="D45" s="7">
+        <v>746</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="M45" s="7">
+        <v>1</v>
+      </c>
+      <c r="N45" s="7">
+        <v>746</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>22</v>
+      </c>
+      <c r="D46" s="7">
+        <v>23087</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>767</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="H46" s="7">
+        <v>25</v>
+      </c>
+      <c r="I46" s="7">
+        <v>15383</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="M46" s="7">
+        <v>47</v>
+      </c>
+      <c r="N46" s="7">
+        <v>38470</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>772</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>25</v>
+      </c>
+      <c r="D47" s="7">
+        <v>28290</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="H47" s="7">
+        <v>22</v>
+      </c>
+      <c r="I47" s="7">
+        <v>15601</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>775</v>
+      </c>
+      <c r="M47" s="7">
+        <v>47</v>
+      </c>
+      <c r="N47" s="7">
+        <v>43891</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>80</v>
+      </c>
+      <c r="D48" s="7">
+        <v>80369</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="H48" s="7">
+        <v>96</v>
+      </c>
+      <c r="I48" s="7">
+        <v>61821</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="M48" s="7">
+        <v>176</v>
+      </c>
+      <c r="N48" s="7">
+        <v>142191</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>785</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7">
+        <v>101</v>
+      </c>
+      <c r="D49" s="7">
+        <v>109047</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>787</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="H49" s="7">
+        <v>132</v>
+      </c>
+      <c r="I49" s="7">
+        <v>91815</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="M49" s="7">
+        <v>233</v>
+      </c>
+      <c r="N49" s="7">
+        <v>200863</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>792</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="7">
+        <v>168</v>
+      </c>
+      <c r="D50" s="7">
+        <v>429329</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>794</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>795</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>796</v>
+      </c>
+      <c r="H50" s="7">
+        <v>236</v>
+      </c>
+      <c r="I50" s="7">
+        <v>170385</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>798</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>799</v>
+      </c>
+      <c r="M50" s="7">
+        <v>404</v>
+      </c>
+      <c r="N50" s="7">
+        <v>599714</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>800</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>396</v>
       </c>
-      <c r="D45" s="7">
-        <v>496914</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="D51" s="7">
+        <v>670123</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" s="7">
         <v>511</v>
       </c>
-      <c r="I45" s="7">
-        <v>387974</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="I51" s="7">
+        <v>355005</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M51" s="7">
         <v>907</v>
       </c>
-      <c r="N45" s="7">
-        <v>884888</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>292</v>
+      <c r="N51" s="7">
+        <v>1025129</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
